--- a/imp_exp_hydro/Synthetic_Path_data.xlsx
+++ b/imp_exp_hydro/Synthetic_Path_data.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/sdenaro_ad_unc_edu/Documents/UNC_2017/Dispatch_model/PNW_Dispatch/imp_exp_hydro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\OneDrive - University of North Carolina at Chapel Hill\UNC_2017\Dispatch_model\PNW_Dispatch\imp_exp_hydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
   </bookViews>
   <sheets>
-    <sheet name="Synthetic_Path_data" sheetId="1" r:id="rId1"/>
+    <sheet name="2010" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -843,7 +843,7 @@
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/imp_exp_hydro/Synthetic_Path_data.xlsx
+++ b/imp_exp_hydro/Synthetic_Path_data.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\OneDrive - University of North Carolina at Chapel Hill\UNC_2017\Dispatch_model\PNW_Dispatch\imp_exp_hydro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\Documents\PNW_Dispatch\imp_exp_hydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20120" windowHeight="7430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
+    <sheet name="2011" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Path3</t>
   </si>
@@ -40,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,315 +50,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -366,203 +72,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7073,4 +6608,6241 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>-8603.6399345397949</v>
+      </c>
+      <c r="B2">
+        <v>19799</v>
+      </c>
+      <c r="C2">
+        <v>18005.967803955082</v>
+      </c>
+      <c r="D2">
+        <v>4235.4481201171884</v>
+      </c>
+      <c r="E2">
+        <v>15186.90013885498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>-1551.559978485107</v>
+      </c>
+      <c r="B3">
+        <v>20509</v>
+      </c>
+      <c r="C3">
+        <v>18326.553787231449</v>
+      </c>
+      <c r="D3">
+        <v>6910.8381042480469</v>
+      </c>
+      <c r="E3">
+        <v>21474.700065612789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2019.3599624633789</v>
+      </c>
+      <c r="B4">
+        <v>16535</v>
+      </c>
+      <c r="C4">
+        <v>12725.184494018549</v>
+      </c>
+      <c r="D4">
+        <v>15858.98001098633</v>
+      </c>
+      <c r="E4">
+        <v>23797.550018310551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>22608.33978271484</v>
+      </c>
+      <c r="B5">
+        <v>32486</v>
+      </c>
+      <c r="C5">
+        <v>16303.656951904301</v>
+      </c>
+      <c r="D5">
+        <v>10832.516479492189</v>
+      </c>
+      <c r="E5">
+        <v>19497.14986991882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>15883.09996986389</v>
+      </c>
+      <c r="B6">
+        <v>36577</v>
+      </c>
+      <c r="C6">
+        <v>19925.227691650391</v>
+      </c>
+      <c r="D6">
+        <v>13138.765991210939</v>
+      </c>
+      <c r="E6">
+        <v>31742.299835205082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5655.3201789855957</v>
+      </c>
+      <c r="B7">
+        <v>35495</v>
+      </c>
+      <c r="C7">
+        <v>17482.270660400391</v>
+      </c>
+      <c r="D7">
+        <v>16067.28082275391</v>
+      </c>
+      <c r="E7">
+        <v>38468.250183105469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>-1477.4200668334961</v>
+      </c>
+      <c r="B8">
+        <v>30572</v>
+      </c>
+      <c r="C8">
+        <v>19941.134185791019</v>
+      </c>
+      <c r="D8">
+        <v>16264.156036376949</v>
+      </c>
+      <c r="E8">
+        <v>35425.200134277336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3799.4200057983398</v>
+      </c>
+      <c r="B9">
+        <v>37401</v>
+      </c>
+      <c r="C9">
+        <v>26929.609191894531</v>
+      </c>
+      <c r="D9">
+        <v>12089.351959228519</v>
+      </c>
+      <c r="E9">
+        <v>39774.349914550781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>6112.9200439453116</v>
+      </c>
+      <c r="B10">
+        <v>36540</v>
+      </c>
+      <c r="C10">
+        <v>24361.618530273441</v>
+      </c>
+      <c r="D10">
+        <v>5543.26025390625</v>
+      </c>
+      <c r="E10">
+        <v>22417.199920654301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>21467.280136108398</v>
+      </c>
+      <c r="B11">
+        <v>27973</v>
+      </c>
+      <c r="C11">
+        <v>17710.96435546875</v>
+      </c>
+      <c r="D11">
+        <v>8819.8219299316406</v>
+      </c>
+      <c r="E11">
+        <v>19143.699996948239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>19828.85986328125</v>
+      </c>
+      <c r="B12">
+        <v>24004</v>
+      </c>
+      <c r="C12">
+        <v>11744.41661071777</v>
+      </c>
+      <c r="D12">
+        <v>10611.911224365231</v>
+      </c>
+      <c r="E12">
+        <v>26544.10009765625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>14878.76000976562</v>
+      </c>
+      <c r="B13">
+        <v>24533</v>
+      </c>
+      <c r="C13">
+        <v>13237.75970458984</v>
+      </c>
+      <c r="D13">
+        <v>17070.99163818359</v>
+      </c>
+      <c r="E13">
+        <v>42211.199890136719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>18891.779876708981</v>
+      </c>
+      <c r="B14">
+        <v>8994</v>
+      </c>
+      <c r="C14">
+        <v>17584.587371826168</v>
+      </c>
+      <c r="D14">
+        <v>18723.334503173832</v>
+      </c>
+      <c r="E14">
+        <v>49093.800048828118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>28872.900085449219</v>
+      </c>
+      <c r="B15">
+        <v>24558</v>
+      </c>
+      <c r="C15">
+        <v>17504.655944824219</v>
+      </c>
+      <c r="D15">
+        <v>20080.365509033199</v>
+      </c>
+      <c r="E15">
+        <v>49104.200439453118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>17727.580169677731</v>
+      </c>
+      <c r="B16">
+        <v>29904</v>
+      </c>
+      <c r="C16">
+        <v>20889.933776855469</v>
+      </c>
+      <c r="D16">
+        <v>19909.858093261719</v>
+      </c>
+      <c r="E16">
+        <v>47646.900390625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>26316.919708251949</v>
+      </c>
+      <c r="B17">
+        <v>35931</v>
+      </c>
+      <c r="C17">
+        <v>18480.349853515621</v>
+      </c>
+      <c r="D17">
+        <v>13113.277526855471</v>
+      </c>
+      <c r="E17">
+        <v>47450.900024414063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>31853.65960693359</v>
+      </c>
+      <c r="B18">
+        <v>31157</v>
+      </c>
+      <c r="C18">
+        <v>19206.14453125</v>
+      </c>
+      <c r="D18">
+        <v>27723.332611083981</v>
+      </c>
+      <c r="E18">
+        <v>56229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>36333.520568847664</v>
+      </c>
+      <c r="B19">
+        <v>28985</v>
+      </c>
+      <c r="C19">
+        <v>14723.602447509769</v>
+      </c>
+      <c r="D19">
+        <v>34044.424682617188</v>
+      </c>
+      <c r="E19">
+        <v>58163.800048828118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>28336.000137329102</v>
+      </c>
+      <c r="B20">
+        <v>26792</v>
+      </c>
+      <c r="C20">
+        <v>8940.0734329223633</v>
+      </c>
+      <c r="D20">
+        <v>26463.859985351559</v>
+      </c>
+      <c r="E20">
+        <v>50893.799926757813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>37661.520385742188</v>
+      </c>
+      <c r="B21">
+        <v>27417</v>
+      </c>
+      <c r="C21">
+        <v>840.19697570800781</v>
+      </c>
+      <c r="D21">
+        <v>39970.888427734382</v>
+      </c>
+      <c r="E21">
+        <v>58457.750244140618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>44671.23974609375</v>
+      </c>
+      <c r="B22">
+        <v>18405</v>
+      </c>
+      <c r="C22">
+        <v>2064.9069671630859</v>
+      </c>
+      <c r="D22">
+        <v>53430.453247070313</v>
+      </c>
+      <c r="E22">
+        <v>75097.400146484375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>37453.58056640625</v>
+      </c>
+      <c r="B23">
+        <v>10358</v>
+      </c>
+      <c r="C23">
+        <v>2841.798965454102</v>
+      </c>
+      <c r="D23">
+        <v>50992.369384765618</v>
+      </c>
+      <c r="E23">
+        <v>74100.800048828125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>25309.759887695309</v>
+      </c>
+      <c r="B24">
+        <v>8757</v>
+      </c>
+      <c r="C24">
+        <v>4181.8130874633789</v>
+      </c>
+      <c r="D24">
+        <v>46907.213623046882</v>
+      </c>
+      <c r="E24">
+        <v>73460.399658203125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>36470.620239257813</v>
+      </c>
+      <c r="B25">
+        <v>18684</v>
+      </c>
+      <c r="C25">
+        <v>6711.5121612548828</v>
+      </c>
+      <c r="D25">
+        <v>42842.273559570313</v>
+      </c>
+      <c r="E25">
+        <v>76217.60009765625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>34743.700073242188</v>
+      </c>
+      <c r="B26">
+        <v>19315</v>
+      </c>
+      <c r="C26">
+        <v>1263.612594604492</v>
+      </c>
+      <c r="D26">
+        <v>40535.146118164063</v>
+      </c>
+      <c r="E26">
+        <v>78539.29931640625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>33241.660278320313</v>
+      </c>
+      <c r="B27">
+        <v>23852</v>
+      </c>
+      <c r="C27">
+        <v>2738.5707168579102</v>
+      </c>
+      <c r="D27">
+        <v>50997.643310546882</v>
+      </c>
+      <c r="E27">
+        <v>70414.900390625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26279.879730224609</v>
+      </c>
+      <c r="B28">
+        <v>28939</v>
+      </c>
+      <c r="C28">
+        <v>4723.1814727783203</v>
+      </c>
+      <c r="D28">
+        <v>44511.316284179688</v>
+      </c>
+      <c r="E28">
+        <v>75458.7001953125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>33623.199951171882</v>
+      </c>
+      <c r="B29">
+        <v>28623</v>
+      </c>
+      <c r="C29">
+        <v>12097.045227050779</v>
+      </c>
+      <c r="D29">
+        <v>45443.836181640618</v>
+      </c>
+      <c r="E29">
+        <v>70789.60009765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>35844.499755859382</v>
+      </c>
+      <c r="B30">
+        <v>20612</v>
+      </c>
+      <c r="C30">
+        <v>12973.465942382811</v>
+      </c>
+      <c r="D30">
+        <v>44214.24609375</v>
+      </c>
+      <c r="E30">
+        <v>71140.300537109375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>6814.0401306152344</v>
+      </c>
+      <c r="B31">
+        <v>23463</v>
+      </c>
+      <c r="C31">
+        <v>14100.978607177731</v>
+      </c>
+      <c r="D31">
+        <v>22675.775146484379</v>
+      </c>
+      <c r="E31">
+        <v>64980.499877929688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>27272.220489501949</v>
+      </c>
+      <c r="B32">
+        <v>25195</v>
+      </c>
+      <c r="C32">
+        <v>10897.656616210939</v>
+      </c>
+      <c r="D32">
+        <v>12717.76995849609</v>
+      </c>
+      <c r="E32">
+        <v>54109.449829101563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>17985.200164794918</v>
+      </c>
+      <c r="B33">
+        <v>18668</v>
+      </c>
+      <c r="C33">
+        <v>2971.023832321167</v>
+      </c>
+      <c r="D33">
+        <v>11628.805328369141</v>
+      </c>
+      <c r="E33">
+        <v>44382.949829101563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>14801.539970397949</v>
+      </c>
+      <c r="B34">
+        <v>24520</v>
+      </c>
+      <c r="C34">
+        <v>-5469.004753112793</v>
+      </c>
+      <c r="D34">
+        <v>15118.06246948242</v>
+      </c>
+      <c r="E34">
+        <v>39004.050048828118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>12346.69994163513</v>
+      </c>
+      <c r="B35">
+        <v>30315</v>
+      </c>
+      <c r="C35">
+        <v>-2694.918815612793</v>
+      </c>
+      <c r="D35">
+        <v>21181.635131835941</v>
+      </c>
+      <c r="E35">
+        <v>55566.449951171882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>27054.359420776371</v>
+      </c>
+      <c r="B36">
+        <v>35822</v>
+      </c>
+      <c r="C36">
+        <v>-3750.8606567382808</v>
+      </c>
+      <c r="D36">
+        <v>24965.326171875</v>
+      </c>
+      <c r="E36">
+        <v>64352.150146484382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>29609.119873046879</v>
+      </c>
+      <c r="B37">
+        <v>33137</v>
+      </c>
+      <c r="C37">
+        <v>5728.4123382568359</v>
+      </c>
+      <c r="D37">
+        <v>18856.92828369141</v>
+      </c>
+      <c r="E37">
+        <v>63290.949951171882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18571.3203125</v>
+      </c>
+      <c r="B38">
+        <v>34089</v>
+      </c>
+      <c r="C38">
+        <v>8576.0842742919922</v>
+      </c>
+      <c r="D38">
+        <v>16407.417388916019</v>
+      </c>
+      <c r="E38">
+        <v>52536.549682617188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>40285.780151367188</v>
+      </c>
+      <c r="B39">
+        <v>29632</v>
+      </c>
+      <c r="C39">
+        <v>5114.6576995849609</v>
+      </c>
+      <c r="D39">
+        <v>17741.596801757809</v>
+      </c>
+      <c r="E39">
+        <v>59808.949462890618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>28080.179565429691</v>
+      </c>
+      <c r="B40">
+        <v>22786</v>
+      </c>
+      <c r="C40">
+        <v>8251.6851043701172</v>
+      </c>
+      <c r="D40">
+        <v>13948.23828125</v>
+      </c>
+      <c r="E40">
+        <v>50536.899658203118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>33737.080505371086</v>
+      </c>
+      <c r="B41">
+        <v>28505</v>
+      </c>
+      <c r="C41">
+        <v>10897.317535400391</v>
+      </c>
+      <c r="D41">
+        <v>20214.838256835941</v>
+      </c>
+      <c r="E41">
+        <v>52495.200317382813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>34400.239929199219</v>
+      </c>
+      <c r="B42">
+        <v>29164</v>
+      </c>
+      <c r="C42">
+        <v>17558.029541015621</v>
+      </c>
+      <c r="D42">
+        <v>23131.927734375</v>
+      </c>
+      <c r="E42">
+        <v>61192.349853515618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>33190.760498046882</v>
+      </c>
+      <c r="B43">
+        <v>23483</v>
+      </c>
+      <c r="C43">
+        <v>16789.91845703125</v>
+      </c>
+      <c r="D43">
+        <v>24707.806518554691</v>
+      </c>
+      <c r="E43">
+        <v>66743.850341796875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>37180.34033203125</v>
+      </c>
+      <c r="B44">
+        <v>14008</v>
+      </c>
+      <c r="C44">
+        <v>13361.8896484375</v>
+      </c>
+      <c r="D44">
+        <v>24106.634765625</v>
+      </c>
+      <c r="E44">
+        <v>68223.400146484375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>28526.080078125</v>
+      </c>
+      <c r="B45">
+        <v>13692</v>
+      </c>
+      <c r="C45">
+        <v>14720.03819274902</v>
+      </c>
+      <c r="D45">
+        <v>23605.658203125</v>
+      </c>
+      <c r="E45">
+        <v>58692.199829101563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>36652.259826660164</v>
+      </c>
+      <c r="B46">
+        <v>23586</v>
+      </c>
+      <c r="C46">
+        <v>21608.82281494141</v>
+      </c>
+      <c r="D46">
+        <v>20736.029541015621</v>
+      </c>
+      <c r="E46">
+        <v>61084.850341796882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>31115.79974365234</v>
+      </c>
+      <c r="B47">
+        <v>25904</v>
+      </c>
+      <c r="C47">
+        <v>25009.50921630859</v>
+      </c>
+      <c r="D47">
+        <v>19215.522094726559</v>
+      </c>
+      <c r="E47">
+        <v>54769.999877929688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>10643.300018310551</v>
+      </c>
+      <c r="B48">
+        <v>28499.563232421879</v>
+      </c>
+      <c r="C48">
+        <v>22607.054809570309</v>
+      </c>
+      <c r="D48">
+        <v>17788.178833007809</v>
+      </c>
+      <c r="E48">
+        <v>56558.499633789063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>3732.3201217651372</v>
+      </c>
+      <c r="B49">
+        <v>26116</v>
+      </c>
+      <c r="C49">
+        <v>21512.40966796875</v>
+      </c>
+      <c r="D49">
+        <v>18006.147583007809</v>
+      </c>
+      <c r="E49">
+        <v>56339.5498046875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>14157.72010803223</v>
+      </c>
+      <c r="B50">
+        <v>29005</v>
+      </c>
+      <c r="C50">
+        <v>19639.403839111332</v>
+      </c>
+      <c r="D50">
+        <v>19274.4091796875</v>
+      </c>
+      <c r="E50">
+        <v>44024.000122070313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>16163.65992736816</v>
+      </c>
+      <c r="B51">
+        <v>14134</v>
+      </c>
+      <c r="C51">
+        <v>17652.132141113281</v>
+      </c>
+      <c r="D51">
+        <v>20249.99468994141</v>
+      </c>
+      <c r="E51">
+        <v>48973.449951171882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>36565.720336914063</v>
+      </c>
+      <c r="B52">
+        <v>22364</v>
+      </c>
+      <c r="C52">
+        <v>26328.315795898441</v>
+      </c>
+      <c r="D52">
+        <v>13489.44964599609</v>
+      </c>
+      <c r="E52">
+        <v>41607.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>14922.13987731934</v>
+      </c>
+      <c r="B53">
+        <v>24351</v>
+      </c>
+      <c r="C53">
+        <v>20239.910827636719</v>
+      </c>
+      <c r="D53">
+        <v>15876.558410644529</v>
+      </c>
+      <c r="E53">
+        <v>50496.399658203118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>32077.480346679691</v>
+      </c>
+      <c r="B54">
+        <v>24948</v>
+      </c>
+      <c r="C54">
+        <v>16632.850067138668</v>
+      </c>
+      <c r="D54">
+        <v>19955.560913085941</v>
+      </c>
+      <c r="E54">
+        <v>58362.699462890618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>15097.040199279791</v>
+      </c>
+      <c r="B55">
+        <v>26174</v>
+      </c>
+      <c r="C55">
+        <v>17382.13818359375</v>
+      </c>
+      <c r="D55">
+        <v>15972.35882568359</v>
+      </c>
+      <c r="E55">
+        <v>53135.000610351563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>15558.06031799316</v>
+      </c>
+      <c r="B56">
+        <v>23092</v>
+      </c>
+      <c r="C56">
+        <v>18174.553100585941</v>
+      </c>
+      <c r="D56">
+        <v>14778.80462646484</v>
+      </c>
+      <c r="E56">
+        <v>37748.431274414063</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>10424.45999145508</v>
+      </c>
+      <c r="B57">
+        <v>9372</v>
+      </c>
+      <c r="C57">
+        <v>17264.15777587891</v>
+      </c>
+      <c r="D57">
+        <v>5402.6351623535156</v>
+      </c>
+      <c r="E57">
+        <v>27643.950012207031</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>8455.2800216674805</v>
+      </c>
+      <c r="B58">
+        <v>17144.074890136719</v>
+      </c>
+      <c r="C58">
+        <v>19305.725769042969</v>
+      </c>
+      <c r="D58">
+        <v>1143.456726074219</v>
+      </c>
+      <c r="E58">
+        <v>39644.199829101563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>26209.660125732418</v>
+      </c>
+      <c r="B59">
+        <v>19079</v>
+      </c>
+      <c r="C59">
+        <v>21135.263061523441</v>
+      </c>
+      <c r="D59">
+        <v>3752.928833007812</v>
+      </c>
+      <c r="E59">
+        <v>57173.199829101563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>18377.600006103519</v>
+      </c>
+      <c r="B60">
+        <v>28194</v>
+      </c>
+      <c r="C60">
+        <v>15066.674682617189</v>
+      </c>
+      <c r="D60">
+        <v>24030.169128417969</v>
+      </c>
+      <c r="E60">
+        <v>54458.800659179688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>7061.1998863220206</v>
+      </c>
+      <c r="B61">
+        <v>30171</v>
+      </c>
+      <c r="C61">
+        <v>22996.62744140625</v>
+      </c>
+      <c r="D61">
+        <v>24912.590942382809</v>
+      </c>
+      <c r="E61">
+        <v>44270.750244140618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>21111.299896240231</v>
+      </c>
+      <c r="B62">
+        <v>22786</v>
+      </c>
+      <c r="C62">
+        <v>22449.067626953121</v>
+      </c>
+      <c r="D62">
+        <v>37907.216552734382</v>
+      </c>
+      <c r="E62">
+        <v>46591.450317382813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>12718.880321502689</v>
+      </c>
+      <c r="B63">
+        <v>25022</v>
+      </c>
+      <c r="C63">
+        <v>25881.281494140621</v>
+      </c>
+      <c r="D63">
+        <v>43515.515869140618</v>
+      </c>
+      <c r="E63">
+        <v>46210.10009765625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>5313.9201507568359</v>
+      </c>
+      <c r="B64">
+        <v>25639</v>
+      </c>
+      <c r="C64">
+        <v>19572.67779541016</v>
+      </c>
+      <c r="D64">
+        <v>49216.978637695313</v>
+      </c>
+      <c r="E64">
+        <v>43095.599853515618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>27136.86024475098</v>
+      </c>
+      <c r="B65">
+        <v>19574</v>
+      </c>
+      <c r="C65">
+        <v>18712.210601806641</v>
+      </c>
+      <c r="D65">
+        <v>47344.030639648438</v>
+      </c>
+      <c r="E65">
+        <v>27682.449951171879</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>25963.280029296879</v>
+      </c>
+      <c r="B66">
+        <v>17195</v>
+      </c>
+      <c r="C66">
+        <v>21770.470336914059</v>
+      </c>
+      <c r="D66">
+        <v>41441.2978515625</v>
+      </c>
+      <c r="E66">
+        <v>19156.099975585941</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>31420.2998046875</v>
+      </c>
+      <c r="B67">
+        <v>17294</v>
+      </c>
+      <c r="C67">
+        <v>16527.022216796879</v>
+      </c>
+      <c r="D67">
+        <v>42603.211181640618</v>
+      </c>
+      <c r="E67">
+        <v>42792.549835205078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>29154.500198364261</v>
+      </c>
+      <c r="B68">
+        <v>19758</v>
+      </c>
+      <c r="C68">
+        <v>9562.2133026123047</v>
+      </c>
+      <c r="D68">
+        <v>14629.390411376949</v>
+      </c>
+      <c r="E68">
+        <v>56226.299865722664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>27180.060180664059</v>
+      </c>
+      <c r="B69">
+        <v>21248</v>
+      </c>
+      <c r="C69">
+        <v>16636.320098876949</v>
+      </c>
+      <c r="D69">
+        <v>46990.709228515618</v>
+      </c>
+      <c r="E69">
+        <v>57416.250366210938</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>19296.35988616943</v>
+      </c>
+      <c r="B70">
+        <v>7109</v>
+      </c>
+      <c r="C70">
+        <v>5101.0569381713867</v>
+      </c>
+      <c r="D70">
+        <v>24007.317626953121</v>
+      </c>
+      <c r="E70">
+        <v>61951.599853515618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>15507.24004364014</v>
+      </c>
+      <c r="B71">
+        <v>20591</v>
+      </c>
+      <c r="C71">
+        <v>11868.73434448242</v>
+      </c>
+      <c r="D71">
+        <v>42428.308959960938</v>
+      </c>
+      <c r="E71">
+        <v>50055.999633789063</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>12597.120018005369</v>
+      </c>
+      <c r="B72">
+        <v>12728</v>
+      </c>
+      <c r="C72">
+        <v>8881.7704772949219</v>
+      </c>
+      <c r="D72">
+        <v>42050.379760742188</v>
+      </c>
+      <c r="E72">
+        <v>55667.500122070313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>8221.6000328063965</v>
+      </c>
+      <c r="B73">
+        <v>19913</v>
+      </c>
+      <c r="C73">
+        <v>15463.741485595699</v>
+      </c>
+      <c r="D73">
+        <v>41484.364013671882</v>
+      </c>
+      <c r="E73">
+        <v>44738.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>13080.299819946291</v>
+      </c>
+      <c r="B74">
+        <v>20797</v>
+      </c>
+      <c r="C74">
+        <v>15223.000793457029</v>
+      </c>
+      <c r="D74">
+        <v>50569.614868164063</v>
+      </c>
+      <c r="E74">
+        <v>50706.149780273438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>10628.44013214111</v>
+      </c>
+      <c r="B75">
+        <v>18763</v>
+      </c>
+      <c r="C75">
+        <v>9772.0084075927734</v>
+      </c>
+      <c r="D75">
+        <v>37137.295104980469</v>
+      </c>
+      <c r="E75">
+        <v>42963.649475097664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>16440.220039367679</v>
+      </c>
+      <c r="B76">
+        <v>26307</v>
+      </c>
+      <c r="C76">
+        <v>16377.793792724609</v>
+      </c>
+      <c r="D76">
+        <v>40711.805725097664</v>
+      </c>
+      <c r="E76">
+        <v>42936.64990234375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>5336.3599605560303</v>
+      </c>
+      <c r="B77">
+        <v>28919</v>
+      </c>
+      <c r="C77">
+        <v>20752.38726806641</v>
+      </c>
+      <c r="D77">
+        <v>34490.908813476563</v>
+      </c>
+      <c r="E77">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>18292.28004455566</v>
+      </c>
+      <c r="B78">
+        <v>28252</v>
+      </c>
+      <c r="C78">
+        <v>22095.890777587891</v>
+      </c>
+      <c r="D78">
+        <v>34772.158996582031</v>
+      </c>
+      <c r="E78">
+        <v>40772.900085449219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>24464.819519042969</v>
+      </c>
+      <c r="B79">
+        <v>30765</v>
+      </c>
+      <c r="C79">
+        <v>24196.66998291016</v>
+      </c>
+      <c r="D79">
+        <v>13772.457183837891</v>
+      </c>
+      <c r="E79">
+        <v>42506.150146484382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>24938.700073242191</v>
+      </c>
+      <c r="B80">
+        <v>32576</v>
+      </c>
+      <c r="C80">
+        <v>25187.292236328121</v>
+      </c>
+      <c r="D80">
+        <v>18065.033935546879</v>
+      </c>
+      <c r="E80">
+        <v>37641.650146484382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>22848.880108833309</v>
+      </c>
+      <c r="B81">
+        <v>25583</v>
+      </c>
+      <c r="C81">
+        <v>12236.605651855471</v>
+      </c>
+      <c r="D81">
+        <v>34043.546081542969</v>
+      </c>
+      <c r="E81">
+        <v>42074.400390625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>25969.02003860474</v>
+      </c>
+      <c r="B82">
+        <v>20438</v>
+      </c>
+      <c r="C82">
+        <v>4708.1561889648438</v>
+      </c>
+      <c r="D82">
+        <v>38851.161499023438</v>
+      </c>
+      <c r="E82">
+        <v>43965.300170898438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>27233.259979248051</v>
+      </c>
+      <c r="B83">
+        <v>17697</v>
+      </c>
+      <c r="C83">
+        <v>14330.18161010742</v>
+      </c>
+      <c r="D83">
+        <v>49906.920166015618</v>
+      </c>
+      <c r="E83">
+        <v>44389.85009765625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>23682.780200958248</v>
+      </c>
+      <c r="B84">
+        <v>15394</v>
+      </c>
+      <c r="C84">
+        <v>13385.542953491209</v>
+      </c>
+      <c r="D84">
+        <v>50806.919189453118</v>
+      </c>
+      <c r="E84">
+        <v>44347.450073242188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>24175.100372314449</v>
+      </c>
+      <c r="B85">
+        <v>16896</v>
+      </c>
+      <c r="C85">
+        <v>10767.715324401859</v>
+      </c>
+      <c r="D85">
+        <v>54682.894653320313</v>
+      </c>
+      <c r="E85">
+        <v>37867.549926757813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>29119.600219726559</v>
+      </c>
+      <c r="B86">
+        <v>22167</v>
+      </c>
+      <c r="C86">
+        <v>12197.851928710939</v>
+      </c>
+      <c r="D86">
+        <v>56693.83203125</v>
+      </c>
+      <c r="E86">
+        <v>22059.500122070309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>18796.319549560551</v>
+      </c>
+      <c r="B87">
+        <v>13525</v>
+      </c>
+      <c r="C87">
+        <v>10454.9002532959</v>
+      </c>
+      <c r="D87">
+        <v>45698.718383789063</v>
+      </c>
+      <c r="E87">
+        <v>22452.500244140621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>26006.100189208981</v>
+      </c>
+      <c r="B88">
+        <v>18722</v>
+      </c>
+      <c r="C88">
+        <v>6608.0192260742188</v>
+      </c>
+      <c r="D88">
+        <v>45808.581298828118</v>
+      </c>
+      <c r="E88">
+        <v>39198.550415039063</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>26650.719909667969</v>
+      </c>
+      <c r="B89">
+        <v>20882</v>
+      </c>
+      <c r="C89">
+        <v>11214.31640625</v>
+      </c>
+      <c r="D89">
+        <v>50536.216552734382</v>
+      </c>
+      <c r="E89">
+        <v>51157.549560546882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>38895.459716796882</v>
+      </c>
+      <c r="B90">
+        <v>14458</v>
+      </c>
+      <c r="C90">
+        <v>5213.4974822998047</v>
+      </c>
+      <c r="D90">
+        <v>60459.9443359375</v>
+      </c>
+      <c r="E90">
+        <v>69362.400024414063</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>35608.460144042969</v>
+      </c>
+      <c r="B91">
+        <v>8688</v>
+      </c>
+      <c r="C91">
+        <v>3385.100692749023</v>
+      </c>
+      <c r="D91">
+        <v>64412.384765625</v>
+      </c>
+      <c r="E91">
+        <v>80863.74951171875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>18671.760299682621</v>
+      </c>
+      <c r="B92">
+        <v>2165</v>
+      </c>
+      <c r="C92">
+        <v>12944.537292480471</v>
+      </c>
+      <c r="D92">
+        <v>57011.116821289063</v>
+      </c>
+      <c r="E92">
+        <v>72672.0498046875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>38984.77978515625</v>
+      </c>
+      <c r="B93">
+        <v>-3939</v>
+      </c>
+      <c r="C93">
+        <v>5379.9982223510742</v>
+      </c>
+      <c r="D93">
+        <v>52879.38037109375</v>
+      </c>
+      <c r="E93">
+        <v>62765.300659179688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>34750.420166015618</v>
+      </c>
+      <c r="B94">
+        <v>2460</v>
+      </c>
+      <c r="C94">
+        <v>7779.6948471069336</v>
+      </c>
+      <c r="D94">
+        <v>35256.435791015618</v>
+      </c>
+      <c r="E94">
+        <v>41120.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>18663.499816894531</v>
+      </c>
+      <c r="B95">
+        <v>6933</v>
+      </c>
+      <c r="C95">
+        <v>12776.699615478519</v>
+      </c>
+      <c r="D95">
+        <v>38497.841552734382</v>
+      </c>
+      <c r="E95">
+        <v>46434.550415039063</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>21168.439529418949</v>
+      </c>
+      <c r="B96">
+        <v>5061</v>
+      </c>
+      <c r="C96">
+        <v>8964.2509765625</v>
+      </c>
+      <c r="D96">
+        <v>56917.074462890618</v>
+      </c>
+      <c r="E96">
+        <v>55411.200317382813</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>35088.640441894531</v>
+      </c>
+      <c r="B97">
+        <v>6885</v>
+      </c>
+      <c r="C97">
+        <v>17648.482711791989</v>
+      </c>
+      <c r="D97">
+        <v>45772.546630859382</v>
+      </c>
+      <c r="E97">
+        <v>42250.800170898438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>26523.879974365231</v>
+      </c>
+      <c r="B98">
+        <v>8839</v>
+      </c>
+      <c r="C98">
+        <v>18823.265228271481</v>
+      </c>
+      <c r="D98">
+        <v>26675.67669677734</v>
+      </c>
+      <c r="E98">
+        <v>33855.000183105469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>27686.559539794918</v>
+      </c>
+      <c r="B99">
+        <v>7761</v>
+      </c>
+      <c r="C99">
+        <v>19345.616119384769</v>
+      </c>
+      <c r="D99">
+        <v>49055.2607421875</v>
+      </c>
+      <c r="E99">
+        <v>42377.150146484382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>33278.820281982422</v>
+      </c>
+      <c r="B100">
+        <v>-1282</v>
+      </c>
+      <c r="C100">
+        <v>11783.09762573242</v>
+      </c>
+      <c r="D100">
+        <v>51887.974365234382</v>
+      </c>
+      <c r="E100">
+        <v>58946.950073242188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>29337.499992370609</v>
+      </c>
+      <c r="B101">
+        <v>3705</v>
+      </c>
+      <c r="C101">
+        <v>13072.498687744141</v>
+      </c>
+      <c r="D101">
+        <v>50239.147583007813</v>
+      </c>
+      <c r="E101">
+        <v>49248.89990234375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>34912.080017089836</v>
+      </c>
+      <c r="B102">
+        <v>6811</v>
+      </c>
+      <c r="C102">
+        <v>13058.093109130859</v>
+      </c>
+      <c r="D102">
+        <v>50531.822265625</v>
+      </c>
+      <c r="E102">
+        <v>48189.550170898438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>26388.85980224609</v>
+      </c>
+      <c r="B103">
+        <v>8876</v>
+      </c>
+      <c r="C103">
+        <v>16622.211517333981</v>
+      </c>
+      <c r="D103">
+        <v>38221.864868164063</v>
+      </c>
+      <c r="E103">
+        <v>34936.700164794922</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>28891.240051269531</v>
+      </c>
+      <c r="B104">
+        <v>11944</v>
+      </c>
+      <c r="C104">
+        <v>26226.6171875</v>
+      </c>
+      <c r="D104">
+        <v>43301.942016601563</v>
+      </c>
+      <c r="E104">
+        <v>34251.250427246086</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>28250.700317382809</v>
+      </c>
+      <c r="B105">
+        <v>15730</v>
+      </c>
+      <c r="C105">
+        <v>28861.81976318359</v>
+      </c>
+      <c r="D105">
+        <v>39212.3916015625</v>
+      </c>
+      <c r="E105">
+        <v>37289.149841308586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>17813.7802734375</v>
+      </c>
+      <c r="B106">
+        <v>10726.563598632811</v>
+      </c>
+      <c r="C106">
+        <v>21658.469116210941</v>
+      </c>
+      <c r="D106">
+        <v>38598.036376953118</v>
+      </c>
+      <c r="E106">
+        <v>38169.399871826172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>26644.139831542969</v>
+      </c>
+      <c r="B107">
+        <v>10044</v>
+      </c>
+      <c r="C107">
+        <v>21638.651184082031</v>
+      </c>
+      <c r="D107">
+        <v>37017.763732910164</v>
+      </c>
+      <c r="E107">
+        <v>45482.650146484382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>30658.039993286129</v>
+      </c>
+      <c r="B108">
+        <v>9854</v>
+      </c>
+      <c r="C108">
+        <v>24950.29400634766</v>
+      </c>
+      <c r="D108">
+        <v>34650.869750976563</v>
+      </c>
+      <c r="E108">
+        <v>41747.200073242188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>28571.140258789059</v>
+      </c>
+      <c r="B109">
+        <v>6192</v>
+      </c>
+      <c r="C109">
+        <v>20878.910766601559</v>
+      </c>
+      <c r="D109">
+        <v>36950.08837890625</v>
+      </c>
+      <c r="E109">
+        <v>39746.649963378914</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>18364.98012542725</v>
+      </c>
+      <c r="B110">
+        <v>10464</v>
+      </c>
+      <c r="C110">
+        <v>20587.766845703121</v>
+      </c>
+      <c r="D110">
+        <v>41508.0947265625</v>
+      </c>
+      <c r="E110">
+        <v>43975.900268554688</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>13330.179992675779</v>
+      </c>
+      <c r="B111">
+        <v>11333</v>
+      </c>
+      <c r="C111">
+        <v>17866.917602539059</v>
+      </c>
+      <c r="D111">
+        <v>41661.903198242188</v>
+      </c>
+      <c r="E111">
+        <v>41031.9501953125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>38840.280456542969</v>
+      </c>
+      <c r="B112">
+        <v>4746</v>
+      </c>
+      <c r="C112">
+        <v>17325.378448486332</v>
+      </c>
+      <c r="D112">
+        <v>55246.27392578125</v>
+      </c>
+      <c r="E112">
+        <v>52631.549438476563</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>26985.020416259769</v>
+      </c>
+      <c r="B113">
+        <v>11052</v>
+      </c>
+      <c r="C113">
+        <v>22072.899047851559</v>
+      </c>
+      <c r="D113">
+        <v>38489.931274414063</v>
+      </c>
+      <c r="E113">
+        <v>45644.99951171875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>28898.119995117191</v>
+      </c>
+      <c r="B114">
+        <v>7385</v>
+      </c>
+      <c r="C114">
+        <v>19981.957153320309</v>
+      </c>
+      <c r="D114">
+        <v>42019.61767578125</v>
+      </c>
+      <c r="E114">
+        <v>25870.149658203121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>36997.660034179688</v>
+      </c>
+      <c r="B115">
+        <v>1038</v>
+      </c>
+      <c r="C115">
+        <v>15836.235504150391</v>
+      </c>
+      <c r="D115">
+        <v>53183.482177734382</v>
+      </c>
+      <c r="E115">
+        <v>22930.14996337891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>11246.96051025391</v>
+      </c>
+      <c r="B116">
+        <v>10045</v>
+      </c>
+      <c r="C116">
+        <v>21262.682250976559</v>
+      </c>
+      <c r="D116">
+        <v>52623.618774414063</v>
+      </c>
+      <c r="E116">
+        <v>39147.300140380859</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>23359.819812774658</v>
+      </c>
+      <c r="B117">
+        <v>11373</v>
+      </c>
+      <c r="C117">
+        <v>20021.916015625</v>
+      </c>
+      <c r="D117">
+        <v>46467.761108398438</v>
+      </c>
+      <c r="E117">
+        <v>53561.64990234375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>25302.219863891602</v>
+      </c>
+      <c r="B118">
+        <v>18669</v>
+      </c>
+      <c r="C118">
+        <v>23510.23291015625</v>
+      </c>
+      <c r="D118">
+        <v>40054.384033203118</v>
+      </c>
+      <c r="E118">
+        <v>40206.349731445313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>24040.060173034672</v>
+      </c>
+      <c r="B119">
+        <v>19255</v>
+      </c>
+      <c r="C119">
+        <v>24115.288452148441</v>
+      </c>
+      <c r="D119">
+        <v>41629.3837890625</v>
+      </c>
+      <c r="E119">
+        <v>45590.649780273438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>26253.199722290039</v>
+      </c>
+      <c r="B120">
+        <v>17555</v>
+      </c>
+      <c r="C120">
+        <v>19706.22406005859</v>
+      </c>
+      <c r="D120">
+        <v>42874.793823242188</v>
+      </c>
+      <c r="E120">
+        <v>49327.950317382813</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>20938.700164794918</v>
+      </c>
+      <c r="B121">
+        <v>12147</v>
+      </c>
+      <c r="C121">
+        <v>14995.25344848633</v>
+      </c>
+      <c r="D121">
+        <v>43253.601440429688</v>
+      </c>
+      <c r="E121">
+        <v>45961.999633789063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>6087.6001091003418</v>
+      </c>
+      <c r="B122">
+        <v>15517</v>
+      </c>
+      <c r="C122">
+        <v>15524.43023681641</v>
+      </c>
+      <c r="D122">
+        <v>43318.640625</v>
+      </c>
+      <c r="E122">
+        <v>47243.850341796882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>6174.4599609375</v>
+      </c>
+      <c r="B123">
+        <v>16422</v>
+      </c>
+      <c r="C123">
+        <v>10330.102584838871</v>
+      </c>
+      <c r="D123">
+        <v>40982.50927734375</v>
+      </c>
+      <c r="E123">
+        <v>46222.5498046875</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>13402.4598236084</v>
+      </c>
+      <c r="B124">
+        <v>22083</v>
+      </c>
+      <c r="C124">
+        <v>8915.4992065429688</v>
+      </c>
+      <c r="D124">
+        <v>43911.902709960938</v>
+      </c>
+      <c r="E124">
+        <v>51644.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>-2300.9399929046631</v>
+      </c>
+      <c r="B125">
+        <v>21399</v>
+      </c>
+      <c r="C125">
+        <v>9056.1110229492188</v>
+      </c>
+      <c r="D125">
+        <v>38392.372131347664</v>
+      </c>
+      <c r="E125">
+        <v>47163.800354003914</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>-8962.1000118255615</v>
+      </c>
+      <c r="B126">
+        <v>20054</v>
+      </c>
+      <c r="C126">
+        <v>11156.934936523439</v>
+      </c>
+      <c r="D126">
+        <v>49647.64208984375</v>
+      </c>
+      <c r="E126">
+        <v>73021.4501953125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>-1446.9797058105471</v>
+      </c>
+      <c r="B127">
+        <v>19575</v>
+      </c>
+      <c r="C127">
+        <v>8004.8792114257813</v>
+      </c>
+      <c r="D127">
+        <v>55808.774047851563</v>
+      </c>
+      <c r="E127">
+        <v>57401.849731445313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10144.400032043461</v>
+      </c>
+      <c r="B128">
+        <v>16801</v>
+      </c>
+      <c r="C128">
+        <v>11235.98655700684</v>
+      </c>
+      <c r="D128">
+        <v>46357.897827148438</v>
+      </c>
+      <c r="E128">
+        <v>61158.000122070313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>15380.88023376465</v>
+      </c>
+      <c r="B129">
+        <v>17558</v>
+      </c>
+      <c r="C129">
+        <v>14140.110229492189</v>
+      </c>
+      <c r="D129">
+        <v>46364.050170898438</v>
+      </c>
+      <c r="E129">
+        <v>59596.450073242188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>19654.53977966309</v>
+      </c>
+      <c r="B130">
+        <v>19135</v>
+      </c>
+      <c r="C130">
+        <v>11438.06295776367</v>
+      </c>
+      <c r="D130">
+        <v>47661.316040039063</v>
+      </c>
+      <c r="E130">
+        <v>53669.200073242188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>15765.340202331539</v>
+      </c>
+      <c r="B131">
+        <v>11744</v>
+      </c>
+      <c r="C131">
+        <v>11086.45892333984</v>
+      </c>
+      <c r="D131">
+        <v>53835.6298828125</v>
+      </c>
+      <c r="E131">
+        <v>60313.150146484382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>-2941.299955368042</v>
+      </c>
+      <c r="B132">
+        <v>10528</v>
+      </c>
+      <c r="C132">
+        <v>10500.848014831539</v>
+      </c>
+      <c r="D132">
+        <v>60828.205078125</v>
+      </c>
+      <c r="E132">
+        <v>65046.900390625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>-10933.31985378265</v>
+      </c>
+      <c r="B133">
+        <v>12026</v>
+      </c>
+      <c r="C133">
+        <v>12981.525756835939</v>
+      </c>
+      <c r="D133">
+        <v>59733.9677734375</v>
+      </c>
+      <c r="E133">
+        <v>71001.849853515625</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>691.81987380981445</v>
+      </c>
+      <c r="B134">
+        <v>9697</v>
+      </c>
+      <c r="C134">
+        <v>7826.5403289794922</v>
+      </c>
+      <c r="D134">
+        <v>58404.183837890618</v>
+      </c>
+      <c r="E134">
+        <v>74051.699951171875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>22787.320068359379</v>
+      </c>
+      <c r="B135">
+        <v>7403</v>
+      </c>
+      <c r="C135">
+        <v>9244.5920867919922</v>
+      </c>
+      <c r="D135">
+        <v>56704.378662109382</v>
+      </c>
+      <c r="E135">
+        <v>68796.299682617188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>23550.139860153198</v>
+      </c>
+      <c r="B136">
+        <v>2062</v>
+      </c>
+      <c r="C136">
+        <v>2489.707870483398</v>
+      </c>
+      <c r="D136">
+        <v>62611.506103515618</v>
+      </c>
+      <c r="E136">
+        <v>73208.849365234375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>22880.299903869629</v>
+      </c>
+      <c r="B137">
+        <v>8111</v>
+      </c>
+      <c r="C137">
+        <v>10830.665657043461</v>
+      </c>
+      <c r="D137">
+        <v>52591.099365234382</v>
+      </c>
+      <c r="E137">
+        <v>76847.650390625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>-491.06013870239258</v>
+      </c>
+      <c r="B138">
+        <v>9028</v>
+      </c>
+      <c r="C138">
+        <v>15590.08447265625</v>
+      </c>
+      <c r="D138">
+        <v>53365.415283203118</v>
+      </c>
+      <c r="E138">
+        <v>67879.250122070313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>8412.5598335266113</v>
+      </c>
+      <c r="B139">
+        <v>2876</v>
+      </c>
+      <c r="C139">
+        <v>11526.96061706543</v>
+      </c>
+      <c r="D139">
+        <v>51538.16943359375</v>
+      </c>
+      <c r="E139">
+        <v>71712.000244140625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>7782.6801452636719</v>
+      </c>
+      <c r="B140">
+        <v>718</v>
+      </c>
+      <c r="C140">
+        <v>9502.943115234375</v>
+      </c>
+      <c r="D140">
+        <v>52831.040283203118</v>
+      </c>
+      <c r="E140">
+        <v>79540.3505859375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>4281.1599731445313</v>
+      </c>
+      <c r="B141">
+        <v>6191</v>
+      </c>
+      <c r="C141">
+        <v>13513.815860748289</v>
+      </c>
+      <c r="D141">
+        <v>58986.89794921875</v>
+      </c>
+      <c r="E141">
+        <v>75899.298583984375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>28050.159973144531</v>
+      </c>
+      <c r="B142">
+        <v>-4324</v>
+      </c>
+      <c r="C142">
+        <v>4400.9558944702148</v>
+      </c>
+      <c r="D142">
+        <v>55322.73828125</v>
+      </c>
+      <c r="E142">
+        <v>76045.849853515625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>23676.820007324219</v>
+      </c>
+      <c r="B143">
+        <v>-9115</v>
+      </c>
+      <c r="C143">
+        <v>4492.2002105712891</v>
+      </c>
+      <c r="D143">
+        <v>58615.99951171875</v>
+      </c>
+      <c r="E143">
+        <v>78238.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>11383.719825744631</v>
+      </c>
+      <c r="B144">
+        <v>-2767</v>
+      </c>
+      <c r="C144">
+        <v>13195.98187255859</v>
+      </c>
+      <c r="D144">
+        <v>54261.899658203118</v>
+      </c>
+      <c r="E144">
+        <v>78844.85009765625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2071.2199401855469</v>
+      </c>
+      <c r="B145">
+        <v>2191</v>
+      </c>
+      <c r="C145">
+        <v>18724.26849365234</v>
+      </c>
+      <c r="D145">
+        <v>55661.99609375</v>
+      </c>
+      <c r="E145">
+        <v>75752.900634765625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>7423.9399261474609</v>
+      </c>
+      <c r="B146">
+        <v>1009</v>
+      </c>
+      <c r="C146">
+        <v>17102.809844970699</v>
+      </c>
+      <c r="D146">
+        <v>54759.360595703118</v>
+      </c>
+      <c r="E146">
+        <v>72612.14990234375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>15341.97992706299</v>
+      </c>
+      <c r="B147">
+        <v>1020</v>
+      </c>
+      <c r="C147">
+        <v>16021.762252807621</v>
+      </c>
+      <c r="D147">
+        <v>57745.8828125</v>
+      </c>
+      <c r="E147">
+        <v>73967.35009765625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>8546.4599609375</v>
+      </c>
+      <c r="B148">
+        <v>2125</v>
+      </c>
+      <c r="C148">
+        <v>13790.107299804689</v>
+      </c>
+      <c r="D148">
+        <v>59942.268798828118</v>
+      </c>
+      <c r="E148">
+        <v>78347.599609375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>14994.099998474119</v>
+      </c>
+      <c r="B149">
+        <v>2066</v>
+      </c>
+      <c r="C149">
+        <v>13415.74411010742</v>
+      </c>
+      <c r="D149">
+        <v>58334.74951171875</v>
+      </c>
+      <c r="E149">
+        <v>69479.3505859375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>13301.599975585939</v>
+      </c>
+      <c r="B150">
+        <v>-5262</v>
+      </c>
+      <c r="C150">
+        <v>9652.4957275390625</v>
+      </c>
+      <c r="D150">
+        <v>57383.773193359382</v>
+      </c>
+      <c r="E150">
+        <v>72746.64990234375</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>4609.4999237060547</v>
+      </c>
+      <c r="B151">
+        <v>-1668</v>
+      </c>
+      <c r="C151">
+        <v>14259.94761657715</v>
+      </c>
+      <c r="D151">
+        <v>55858.87109375</v>
+      </c>
+      <c r="E151">
+        <v>71800.699951171875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>-8748.180061340332</v>
+      </c>
+      <c r="B152">
+        <v>3581</v>
+      </c>
+      <c r="C152">
+        <v>22350.294067382809</v>
+      </c>
+      <c r="D152">
+        <v>54154.673095703118</v>
+      </c>
+      <c r="E152">
+        <v>70005.150146484375</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>10839.20008850098</v>
+      </c>
+      <c r="B153">
+        <v>922</v>
+      </c>
+      <c r="C153">
+        <v>19384.337890625</v>
+      </c>
+      <c r="D153">
+        <v>50566.978881835938</v>
+      </c>
+      <c r="E153">
+        <v>69274.549560546875</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>27614.60015869141</v>
+      </c>
+      <c r="B154">
+        <v>-3058.40601348877</v>
+      </c>
+      <c r="C154">
+        <v>11778.503860473629</v>
+      </c>
+      <c r="D154">
+        <v>60145.29541015625</v>
+      </c>
+      <c r="E154">
+        <v>82230.950439453125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>7144.6999053955078</v>
+      </c>
+      <c r="B155">
+        <v>3797</v>
+      </c>
+      <c r="C155">
+        <v>14207.362670898439</v>
+      </c>
+      <c r="D155">
+        <v>61500.569091796882</v>
+      </c>
+      <c r="E155">
+        <v>75589.849853515625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>6129.1598510742188</v>
+      </c>
+      <c r="B156">
+        <v>-3008</v>
+      </c>
+      <c r="C156">
+        <v>11217.4677734375</v>
+      </c>
+      <c r="D156">
+        <v>61954.083984375</v>
+      </c>
+      <c r="E156">
+        <v>74029.499755859375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>-448.07998657226563</v>
+      </c>
+      <c r="B157">
+        <v>104</v>
+      </c>
+      <c r="C157">
+        <v>6978.2822723388672</v>
+      </c>
+      <c r="D157">
+        <v>58667.853515625</v>
+      </c>
+      <c r="E157">
+        <v>73275.89990234375</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>9325.6800765991211</v>
+      </c>
+      <c r="B158">
+        <v>-2322</v>
+      </c>
+      <c r="C158">
+        <v>5592.3485260009766</v>
+      </c>
+      <c r="D158">
+        <v>56532.991943359382</v>
+      </c>
+      <c r="E158">
+        <v>76504.54931640625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>18223.31980514526</v>
+      </c>
+      <c r="B159">
+        <v>-2389</v>
+      </c>
+      <c r="C159">
+        <v>4185.307014465332</v>
+      </c>
+      <c r="D159">
+        <v>59223.322998046882</v>
+      </c>
+      <c r="E159">
+        <v>86663.150390625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>12111.159843444821</v>
+      </c>
+      <c r="B160">
+        <v>-511.40603637695313</v>
+      </c>
+      <c r="C160">
+        <v>7363.2425842285156</v>
+      </c>
+      <c r="D160">
+        <v>52051.451416015618</v>
+      </c>
+      <c r="E160">
+        <v>68982.449951171875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>3533.3000106811519</v>
+      </c>
+      <c r="B161">
+        <v>181</v>
+      </c>
+      <c r="C161">
+        <v>10240.006675720209</v>
+      </c>
+      <c r="D161">
+        <v>50312.095336914063</v>
+      </c>
+      <c r="E161">
+        <v>67802.049560546875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>19497.639923095699</v>
+      </c>
+      <c r="B162">
+        <v>-4138</v>
+      </c>
+      <c r="C162">
+        <v>2631.618688583374</v>
+      </c>
+      <c r="D162">
+        <v>51314.04931640625</v>
+      </c>
+      <c r="E162">
+        <v>72245.650390625</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>19498.78001403809</v>
+      </c>
+      <c r="B163">
+        <v>-7193</v>
+      </c>
+      <c r="C163">
+        <v>-1868.7783899307251</v>
+      </c>
+      <c r="D163">
+        <v>54730.356201171882</v>
+      </c>
+      <c r="E163">
+        <v>69813.249755859375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>14341.64024353027</v>
+      </c>
+      <c r="B164">
+        <v>-1992</v>
+      </c>
+      <c r="C164">
+        <v>1247.6995544433589</v>
+      </c>
+      <c r="D164">
+        <v>53922.641845703118</v>
+      </c>
+      <c r="E164">
+        <v>72638.249267578125</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>19280.599975585941</v>
+      </c>
+      <c r="B165">
+        <v>-1905</v>
+      </c>
+      <c r="C165">
+        <v>3058.9991493225102</v>
+      </c>
+      <c r="D165">
+        <v>54326.059326171882</v>
+      </c>
+      <c r="E165">
+        <v>78082.89990234375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>3421.059900283813</v>
+      </c>
+      <c r="B166">
+        <v>4335</v>
+      </c>
+      <c r="C166">
+        <v>1768.6205291748049</v>
+      </c>
+      <c r="D166">
+        <v>59537.97216796875</v>
+      </c>
+      <c r="E166">
+        <v>85830.74951171875</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>9831.8399448394775</v>
+      </c>
+      <c r="B167">
+        <v>4002</v>
+      </c>
+      <c r="C167">
+        <v>346.14498138427729</v>
+      </c>
+      <c r="D167">
+        <v>62556.135498046882</v>
+      </c>
+      <c r="E167">
+        <v>83812.600341796875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>8768.9200763702393</v>
+      </c>
+      <c r="B168">
+        <v>2496</v>
+      </c>
+      <c r="C168">
+        <v>1607.7294616699221</v>
+      </c>
+      <c r="D168">
+        <v>59483.47900390625</v>
+      </c>
+      <c r="E168">
+        <v>84744.2998046875</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>12720.360057830811</v>
+      </c>
+      <c r="B169">
+        <v>4887</v>
+      </c>
+      <c r="C169">
+        <v>5823.6609344482422</v>
+      </c>
+      <c r="D169">
+        <v>60200.666748046882</v>
+      </c>
+      <c r="E169">
+        <v>80277.000244140625</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>21734.980163574219</v>
+      </c>
+      <c r="B170">
+        <v>1847.5939636230471</v>
+      </c>
+      <c r="C170">
+        <v>1487.066715240479</v>
+      </c>
+      <c r="D170">
+        <v>59236.50732421875</v>
+      </c>
+      <c r="E170">
+        <v>88580.7998046875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>23554.97998046875</v>
+      </c>
+      <c r="B171">
+        <v>-1365</v>
+      </c>
+      <c r="C171">
+        <v>2049.8156623840332</v>
+      </c>
+      <c r="D171">
+        <v>57574.49609375</v>
+      </c>
+      <c r="E171">
+        <v>85121.7998046875</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>133.5399360656738</v>
+      </c>
+      <c r="B172">
+        <v>2532</v>
+      </c>
+      <c r="C172">
+        <v>4096.6271438598633</v>
+      </c>
+      <c r="D172">
+        <v>59900.960205078118</v>
+      </c>
+      <c r="E172">
+        <v>89100.80029296875</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>-5304.6398544311523</v>
+      </c>
+      <c r="B173">
+        <v>2607</v>
+      </c>
+      <c r="C173">
+        <v>4525.4216690063477</v>
+      </c>
+      <c r="D173">
+        <v>49700.377319335938</v>
+      </c>
+      <c r="E173">
+        <v>85085.400146484375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>3668.4399108886719</v>
+      </c>
+      <c r="B174">
+        <v>1637.187942504883</v>
+      </c>
+      <c r="C174">
+        <v>-1768.194967269897</v>
+      </c>
+      <c r="D174">
+        <v>53339.92626953125</v>
+      </c>
+      <c r="E174">
+        <v>79583.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>15967.43995285034</v>
+      </c>
+      <c r="B175">
+        <v>-3737</v>
+      </c>
+      <c r="C175">
+        <v>-10094.841873168951</v>
+      </c>
+      <c r="D175">
+        <v>58814.632080078118</v>
+      </c>
+      <c r="E175">
+        <v>89232.39990234375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>4004.2198944091801</v>
+      </c>
+      <c r="B176">
+        <v>1305</v>
+      </c>
+      <c r="C176">
+        <v>-4389.5789108276367</v>
+      </c>
+      <c r="D176">
+        <v>61211.40869140625</v>
+      </c>
+      <c r="E176">
+        <v>82989.400634765625</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>3334.239976882935</v>
+      </c>
+      <c r="B177">
+        <v>349</v>
+      </c>
+      <c r="C177">
+        <v>-3817.8678665161128</v>
+      </c>
+      <c r="D177">
+        <v>60211.2138671875</v>
+      </c>
+      <c r="E177">
+        <v>84617.249755859375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>-3952.7201595306401</v>
+      </c>
+      <c r="B178">
+        <v>1689</v>
+      </c>
+      <c r="C178">
+        <v>-1007.481004714966</v>
+      </c>
+      <c r="D178">
+        <v>58381.3310546875</v>
+      </c>
+      <c r="E178">
+        <v>79623.300048828125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>-14384.460327148439</v>
+      </c>
+      <c r="B179">
+        <v>3846</v>
+      </c>
+      <c r="C179">
+        <v>-2244.9932069778438</v>
+      </c>
+      <c r="D179">
+        <v>56266.68310546875</v>
+      </c>
+      <c r="E179">
+        <v>66289.050537109375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>-2802.6397361755371</v>
+      </c>
+      <c r="B180">
+        <v>8281</v>
+      </c>
+      <c r="C180">
+        <v>-5431.2464904785156</v>
+      </c>
+      <c r="D180">
+        <v>63739.142578125</v>
+      </c>
+      <c r="E180">
+        <v>70593.60009765625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>9853.660041809082</v>
+      </c>
+      <c r="B181">
+        <v>-590</v>
+      </c>
+      <c r="C181">
+        <v>-8358.3556900024414</v>
+      </c>
+      <c r="D181">
+        <v>66108.673828125</v>
+      </c>
+      <c r="E181">
+        <v>81702.80029296875</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>16301.759979248051</v>
+      </c>
+      <c r="B182">
+        <v>1807</v>
+      </c>
+      <c r="C182">
+        <v>-10859.72840881348</v>
+      </c>
+      <c r="D182">
+        <v>57821.46923828125</v>
+      </c>
+      <c r="E182">
+        <v>87813.099609375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>-13362.68000793457</v>
+      </c>
+      <c r="B183">
+        <v>11306</v>
+      </c>
+      <c r="C183">
+        <v>-8249.4115829467773</v>
+      </c>
+      <c r="D183">
+        <v>61351.15478515625</v>
+      </c>
+      <c r="E183">
+        <v>88251.64990234375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>-15700.93989944458</v>
+      </c>
+      <c r="B184">
+        <v>7535</v>
+      </c>
+      <c r="C184">
+        <v>-8916.1708374023438</v>
+      </c>
+      <c r="D184">
+        <v>61060.236328125</v>
+      </c>
+      <c r="E184">
+        <v>89711.85009765625</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>2714.380126953125</v>
+      </c>
+      <c r="B185">
+        <v>774</v>
+      </c>
+      <c r="C185">
+        <v>-12495.316970825201</v>
+      </c>
+      <c r="D185">
+        <v>62871.66259765625</v>
+      </c>
+      <c r="E185">
+        <v>89347.399658203125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>-239.1799621582031</v>
+      </c>
+      <c r="B186">
+        <v>8968</v>
+      </c>
+      <c r="C186">
+        <v>-8647.3740692138672</v>
+      </c>
+      <c r="D186">
+        <v>59541.487060546882</v>
+      </c>
+      <c r="E186">
+        <v>84832.049560546875</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>-11494.88008117676</v>
+      </c>
+      <c r="B187">
+        <v>9287</v>
+      </c>
+      <c r="C187">
+        <v>-10537.35092926025</v>
+      </c>
+      <c r="D187">
+        <v>59110.8232421875</v>
+      </c>
+      <c r="E187">
+        <v>83822.44921875</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>-29535.859741210941</v>
+      </c>
+      <c r="B188">
+        <v>10697</v>
+      </c>
+      <c r="C188">
+        <v>-11498.613204956049</v>
+      </c>
+      <c r="D188">
+        <v>61939.142578125</v>
+      </c>
+      <c r="E188">
+        <v>83656.500244140625</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>-2328.6400413513179</v>
+      </c>
+      <c r="B189">
+        <v>7165</v>
+      </c>
+      <c r="C189">
+        <v>-15195.873840332029</v>
+      </c>
+      <c r="D189">
+        <v>51650.67138671875</v>
+      </c>
+      <c r="E189">
+        <v>95888.850341796875</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>-2382.9201145172119</v>
+      </c>
+      <c r="B190">
+        <v>10340</v>
+      </c>
+      <c r="C190">
+        <v>-12011.210266113279</v>
+      </c>
+      <c r="D190">
+        <v>64499.396484375</v>
+      </c>
+      <c r="E190">
+        <v>94034.5498046875</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>-6644.6601629257202</v>
+      </c>
+      <c r="B191">
+        <v>11563</v>
+      </c>
+      <c r="C191">
+        <v>-9620.9808807373047</v>
+      </c>
+      <c r="D191">
+        <v>59599.49560546875</v>
+      </c>
+      <c r="E191">
+        <v>90509.400146484375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>-12899.09986877441</v>
+      </c>
+      <c r="B192">
+        <v>111</v>
+      </c>
+      <c r="C192">
+        <v>-11707.687103271481</v>
+      </c>
+      <c r="D192">
+        <v>55087.191650390618</v>
+      </c>
+      <c r="E192">
+        <v>80974.5498046875</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>-20746.079605102539</v>
+      </c>
+      <c r="B193">
+        <v>5344</v>
+      </c>
+      <c r="C193">
+        <v>-11130.56020355225</v>
+      </c>
+      <c r="D193">
+        <v>55519.613525390618</v>
+      </c>
+      <c r="E193">
+        <v>73951.949951171875</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>-10826.779991149901</v>
+      </c>
+      <c r="B194">
+        <v>5331</v>
+      </c>
+      <c r="C194">
+        <v>-9844.0665130615234</v>
+      </c>
+      <c r="D194">
+        <v>54238.168701171882</v>
+      </c>
+      <c r="E194">
+        <v>74357.64990234375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>-9652.6198692321777</v>
+      </c>
+      <c r="B195">
+        <v>7412</v>
+      </c>
+      <c r="C195">
+        <v>-8362.9432220458984</v>
+      </c>
+      <c r="D195">
+        <v>58753.9873046875</v>
+      </c>
+      <c r="E195">
+        <v>70451.000244140625</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>-14783.2001953125</v>
+      </c>
+      <c r="B196">
+        <v>8985</v>
+      </c>
+      <c r="C196">
+        <v>-9225.0998077392578</v>
+      </c>
+      <c r="D196">
+        <v>59730.45166015625</v>
+      </c>
+      <c r="E196">
+        <v>74235.60009765625</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>-27562.139953613281</v>
+      </c>
+      <c r="B197">
+        <v>17235</v>
+      </c>
+      <c r="C197">
+        <v>-7934.7372131347656</v>
+      </c>
+      <c r="D197">
+        <v>59070.393798828118</v>
+      </c>
+      <c r="E197">
+        <v>81834.19970703125</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>-12111.28004455566</v>
+      </c>
+      <c r="B198">
+        <v>12024</v>
+      </c>
+      <c r="C198">
+        <v>-7506.8766021728516</v>
+      </c>
+      <c r="D198">
+        <v>57519.125</v>
+      </c>
+      <c r="E198">
+        <v>78924.4501953125</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>-16119.780203819269</v>
+      </c>
+      <c r="B199">
+        <v>12291</v>
+      </c>
+      <c r="C199">
+        <v>-7325.9109344482422</v>
+      </c>
+      <c r="D199">
+        <v>56332.602294921882</v>
+      </c>
+      <c r="E199">
+        <v>81800.250244140625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>-21592.080284118649</v>
+      </c>
+      <c r="B200">
+        <v>14937</v>
+      </c>
+      <c r="C200">
+        <v>-6543.6687545776367</v>
+      </c>
+      <c r="D200">
+        <v>57198.32421875</v>
+      </c>
+      <c r="E200">
+        <v>83481.949462890625</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>-16859.560073852539</v>
+      </c>
+      <c r="B201">
+        <v>10975.593933105471</v>
+      </c>
+      <c r="C201">
+        <v>-10586.115364074711</v>
+      </c>
+      <c r="D201">
+        <v>63238.166015625</v>
+      </c>
+      <c r="E201">
+        <v>92396.45068359375</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>-24955.100109100342</v>
+      </c>
+      <c r="B202">
+        <v>12150</v>
+      </c>
+      <c r="C202">
+        <v>-4923.6981735229492</v>
+      </c>
+      <c r="D202">
+        <v>59320.88232421875</v>
+      </c>
+      <c r="E202">
+        <v>92574.349853515625</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>-12847.45977020264</v>
+      </c>
+      <c r="B203">
+        <v>13814</v>
+      </c>
+      <c r="C203">
+        <v>-5386.4756469726563</v>
+      </c>
+      <c r="D203">
+        <v>61526.056884765618</v>
+      </c>
+      <c r="E203">
+        <v>94049.399658203125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>-20663.819839000698</v>
+      </c>
+      <c r="B204">
+        <v>19962</v>
+      </c>
+      <c r="C204">
+        <v>-4298.4360427856454</v>
+      </c>
+      <c r="D204">
+        <v>57875.95947265625</v>
+      </c>
+      <c r="E204">
+        <v>88750.3505859375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>-26287.91983795166</v>
+      </c>
+      <c r="B205">
+        <v>20581</v>
+      </c>
+      <c r="C205">
+        <v>-4644.7186584472656</v>
+      </c>
+      <c r="D205">
+        <v>53555.259155273438</v>
+      </c>
+      <c r="E205">
+        <v>84562.349853515625</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>-16750.020118713379</v>
+      </c>
+      <c r="B206">
+        <v>18659</v>
+      </c>
+      <c r="C206">
+        <v>-2593.8243637084961</v>
+      </c>
+      <c r="D206">
+        <v>48095.494995117188</v>
+      </c>
+      <c r="E206">
+        <v>74118.949951171875</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>-24322.220413208011</v>
+      </c>
+      <c r="B207">
+        <v>15231.781921386721</v>
+      </c>
+      <c r="C207">
+        <v>-4494.4942932128906</v>
+      </c>
+      <c r="D207">
+        <v>59320.00341796875</v>
+      </c>
+      <c r="E207">
+        <v>91956.4501953125</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>-21653.539966583248</v>
+      </c>
+      <c r="B208">
+        <v>21742</v>
+      </c>
+      <c r="C208">
+        <v>-1979.2305603027339</v>
+      </c>
+      <c r="D208">
+        <v>55882.60107421875</v>
+      </c>
+      <c r="E208">
+        <v>89000.4501953125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>-27813.619987487789</v>
+      </c>
+      <c r="B209">
+        <v>19230</v>
+      </c>
+      <c r="C209">
+        <v>315.249755859375</v>
+      </c>
+      <c r="D209">
+        <v>56069.808837890618</v>
+      </c>
+      <c r="E209">
+        <v>84615.599609375</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>-28089.819741249081</v>
+      </c>
+      <c r="B210">
+        <v>20971.593933105469</v>
+      </c>
+      <c r="C210">
+        <v>567.98199462890625</v>
+      </c>
+      <c r="D210">
+        <v>53028.794921875</v>
+      </c>
+      <c r="E210">
+        <v>87824.849609375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>-17902.85980224609</v>
+      </c>
+      <c r="B211">
+        <v>21800.593933105469</v>
+      </c>
+      <c r="C211">
+        <v>-3745.1858215332031</v>
+      </c>
+      <c r="D211">
+        <v>42065.320922851563</v>
+      </c>
+      <c r="E211">
+        <v>82472.099853515625</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>-10557.50014877319</v>
+      </c>
+      <c r="B212">
+        <v>14893</v>
+      </c>
+      <c r="C212">
+        <v>-8705.9208679199219</v>
+      </c>
+      <c r="D212">
+        <v>9710.1536865234375</v>
+      </c>
+      <c r="E212">
+        <v>86426.25048828125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>5317.1200065612793</v>
+      </c>
+      <c r="B213">
+        <v>12526</v>
+      </c>
+      <c r="C213">
+        <v>-11763.92268371582</v>
+      </c>
+      <c r="D213">
+        <v>7960.251708984375</v>
+      </c>
+      <c r="E213">
+        <v>89971.599853515625</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>-25336.640377044681</v>
+      </c>
+      <c r="B214">
+        <v>24865.593994140621</v>
+      </c>
+      <c r="C214">
+        <v>350.86583709716803</v>
+      </c>
+      <c r="D214">
+        <v>44985.925537109382</v>
+      </c>
+      <c r="E214">
+        <v>78517.399658203125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>-31056.180053710941</v>
+      </c>
+      <c r="B215">
+        <v>26328</v>
+      </c>
+      <c r="C215">
+        <v>439.18496704101563</v>
+      </c>
+      <c r="D215">
+        <v>53957.7978515625</v>
+      </c>
+      <c r="E215">
+        <v>84000.54931640625</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>-31543.839599609379</v>
+      </c>
+      <c r="B216">
+        <v>27824</v>
+      </c>
+      <c r="C216">
+        <v>1305.011352539062</v>
+      </c>
+      <c r="D216">
+        <v>55095.98046875</v>
+      </c>
+      <c r="E216">
+        <v>85274.44921875</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>-22205.080200195309</v>
+      </c>
+      <c r="B217">
+        <v>30755.593872070309</v>
+      </c>
+      <c r="C217">
+        <v>2609.0912170410161</v>
+      </c>
+      <c r="D217">
+        <v>52260.631103515618</v>
+      </c>
+      <c r="E217">
+        <v>76104.1005859375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>-31794.739990234379</v>
+      </c>
+      <c r="B218">
+        <v>27630</v>
+      </c>
+      <c r="C218">
+        <v>-868.98762512207031</v>
+      </c>
+      <c r="D218">
+        <v>59239.143310546882</v>
+      </c>
+      <c r="E218">
+        <v>91833.900146484375</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>-36491.219665527336</v>
+      </c>
+      <c r="B219">
+        <v>22915</v>
+      </c>
+      <c r="C219">
+        <v>-4290.3291931152344</v>
+      </c>
+      <c r="D219">
+        <v>59835.0419921875</v>
+      </c>
+      <c r="E219">
+        <v>83888.900146484375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>-38304.660034179688</v>
+      </c>
+      <c r="B220">
+        <v>16038</v>
+      </c>
+      <c r="C220">
+        <v>-6528.8620300292969</v>
+      </c>
+      <c r="D220">
+        <v>58317.171875</v>
+      </c>
+      <c r="E220">
+        <v>85442.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>-35883.26025390625</v>
+      </c>
+      <c r="B221">
+        <v>22429</v>
+      </c>
+      <c r="C221">
+        <v>-3247.9911956787109</v>
+      </c>
+      <c r="D221">
+        <v>57124.495849609382</v>
+      </c>
+      <c r="E221">
+        <v>89694.4501953125</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>-28508.840026855469</v>
+      </c>
+      <c r="B222">
+        <v>20542</v>
+      </c>
+      <c r="C222">
+        <v>-6074.7975616455078</v>
+      </c>
+      <c r="D222">
+        <v>57943.635498046882</v>
+      </c>
+      <c r="E222">
+        <v>92354.700439453125</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>-29258.059852600101</v>
+      </c>
+      <c r="B223">
+        <v>7231</v>
+      </c>
+      <c r="C223">
+        <v>-2817.4538726806641</v>
+      </c>
+      <c r="D223">
+        <v>54960.628662109382</v>
+      </c>
+      <c r="E223">
+        <v>88068.550048828125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>-31378.360237121578</v>
+      </c>
+      <c r="B224">
+        <v>19784</v>
+      </c>
+      <c r="C224">
+        <v>585.54214477539063</v>
+      </c>
+      <c r="D224">
+        <v>49969.323974609382</v>
+      </c>
+      <c r="E224">
+        <v>81526.45068359375</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>-33017.72004032135</v>
+      </c>
+      <c r="B225">
+        <v>28032.593994140621</v>
+      </c>
+      <c r="C225">
+        <v>4087.339477539062</v>
+      </c>
+      <c r="D225">
+        <v>51801.8408203125</v>
+      </c>
+      <c r="E225">
+        <v>82977</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>-30240.22031784058</v>
+      </c>
+      <c r="B226">
+        <v>25824</v>
+      </c>
+      <c r="C226">
+        <v>-1616.868041992188</v>
+      </c>
+      <c r="D226">
+        <v>55997.738525390618</v>
+      </c>
+      <c r="E226">
+        <v>83523.35009765625</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>-25240.38028717041</v>
+      </c>
+      <c r="B227">
+        <v>25278</v>
+      </c>
+      <c r="C227">
+        <v>-5645.3740081787109</v>
+      </c>
+      <c r="D227">
+        <v>56598.910400390618</v>
+      </c>
+      <c r="E227">
+        <v>81980.7998046875</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>-26882.76050567627</v>
+      </c>
+      <c r="B228">
+        <v>25773</v>
+      </c>
+      <c r="C228">
+        <v>984.09968566894531</v>
+      </c>
+      <c r="D228">
+        <v>52048.81396484375</v>
+      </c>
+      <c r="E228">
+        <v>81399.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>-37007.719955444343</v>
+      </c>
+      <c r="B229">
+        <v>27218</v>
+      </c>
+      <c r="C229">
+        <v>186.95838928222659</v>
+      </c>
+      <c r="D229">
+        <v>50820.981689453118</v>
+      </c>
+      <c r="E229">
+        <v>78371.300048828125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>-22126.3201675415</v>
+      </c>
+      <c r="B230">
+        <v>26998</v>
+      </c>
+      <c r="C230">
+        <v>-3970.290664672852</v>
+      </c>
+      <c r="D230">
+        <v>49722.35009765625</v>
+      </c>
+      <c r="E230">
+        <v>85234.35009765625</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>-21482.799392700199</v>
+      </c>
+      <c r="B231">
+        <v>29005</v>
+      </c>
+      <c r="C231">
+        <v>-1778.873001098633</v>
+      </c>
+      <c r="D231">
+        <v>51303.50146484375</v>
+      </c>
+      <c r="E231">
+        <v>85402.599853515625</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>-34696.880004882813</v>
+      </c>
+      <c r="B232">
+        <v>30453</v>
+      </c>
+      <c r="C232">
+        <v>-792.40817260742188</v>
+      </c>
+      <c r="D232">
+        <v>40842.763122558586</v>
+      </c>
+      <c r="E232">
+        <v>75774.599853515625</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>-39734.439697265618</v>
+      </c>
+      <c r="B233">
+        <v>31269.593994140621</v>
+      </c>
+      <c r="C233">
+        <v>429.55592346191412</v>
+      </c>
+      <c r="D233">
+        <v>40704.774291992188</v>
+      </c>
+      <c r="E233">
+        <v>75430.0498046875</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>-37298.240234375</v>
+      </c>
+      <c r="B234">
+        <v>24144</v>
+      </c>
+      <c r="C234">
+        <v>7551.8103332519531</v>
+      </c>
+      <c r="D234">
+        <v>37202.333923339836</v>
+      </c>
+      <c r="E234">
+        <v>77003.80029296875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>-35432.839538574219</v>
+      </c>
+      <c r="B235">
+        <v>19983</v>
+      </c>
+      <c r="C235">
+        <v>-1264.502731323242</v>
+      </c>
+      <c r="D235">
+        <v>44626.45263671875</v>
+      </c>
+      <c r="E235">
+        <v>82899</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>-41621.600036621086</v>
+      </c>
+      <c r="B236">
+        <v>23071</v>
+      </c>
+      <c r="C236">
+        <v>1484.807571411133</v>
+      </c>
+      <c r="D236">
+        <v>43149.890502929688</v>
+      </c>
+      <c r="E236">
+        <v>80796.850341796875</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>-42715.059631347664</v>
+      </c>
+      <c r="B237">
+        <v>28933</v>
+      </c>
+      <c r="C237">
+        <v>1557.55517578125</v>
+      </c>
+      <c r="D237">
+        <v>38737.783325195313</v>
+      </c>
+      <c r="E237">
+        <v>75555.14990234375</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>-38735.83984375</v>
+      </c>
+      <c r="B238">
+        <v>28061</v>
+      </c>
+      <c r="C238">
+        <v>-67.242645263671875</v>
+      </c>
+      <c r="D238">
+        <v>39733.582580566414</v>
+      </c>
+      <c r="E238">
+        <v>71299.099609375</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>-46137.340454101563</v>
+      </c>
+      <c r="B239">
+        <v>27349</v>
+      </c>
+      <c r="C239">
+        <v>886.33058166503906</v>
+      </c>
+      <c r="D239">
+        <v>37134.65869140625</v>
+      </c>
+      <c r="E239">
+        <v>72913.950439453125</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>-42889.760131835938</v>
+      </c>
+      <c r="B240">
+        <v>29158</v>
+      </c>
+      <c r="C240">
+        <v>871.32405090332031</v>
+      </c>
+      <c r="D240">
+        <v>38029.384521484382</v>
+      </c>
+      <c r="E240">
+        <v>70235.19970703125</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>-40716.5205078125</v>
+      </c>
+      <c r="B241">
+        <v>30451</v>
+      </c>
+      <c r="C241">
+        <v>5397.8319244384766</v>
+      </c>
+      <c r="D241">
+        <v>34820.498901367188</v>
+      </c>
+      <c r="E241">
+        <v>72049.500244140625</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>-37913.460205078118</v>
+      </c>
+      <c r="B242">
+        <v>24515</v>
+      </c>
+      <c r="C242">
+        <v>289.30677795410162</v>
+      </c>
+      <c r="D242">
+        <v>42263.073974609382</v>
+      </c>
+      <c r="E242">
+        <v>83482.10009765625</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>-36078.23974609375</v>
+      </c>
+      <c r="B243">
+        <v>30650</v>
+      </c>
+      <c r="C243">
+        <v>-2980.7582092285161</v>
+      </c>
+      <c r="D243">
+        <v>43785.339477539063</v>
+      </c>
+      <c r="E243">
+        <v>85099.64990234375</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>-37068.079711914063</v>
+      </c>
+      <c r="B244">
+        <v>30817.593994140621</v>
+      </c>
+      <c r="C244">
+        <v>1982.622436523438</v>
+      </c>
+      <c r="D244">
+        <v>45840.221313476563</v>
+      </c>
+      <c r="E244">
+        <v>88897.450439453125</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>-41106.85986328125</v>
+      </c>
+      <c r="B245">
+        <v>24925</v>
+      </c>
+      <c r="C245">
+        <v>8825.4194030761719</v>
+      </c>
+      <c r="D245">
+        <v>34651.74853515625</v>
+      </c>
+      <c r="E245">
+        <v>84416.249755859375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>-41856.739990234382</v>
+      </c>
+      <c r="B246">
+        <v>26014</v>
+      </c>
+      <c r="C246">
+        <v>13596.86401367188</v>
+      </c>
+      <c r="D246">
+        <v>33125.088806152336</v>
+      </c>
+      <c r="E246">
+        <v>80896.74951171875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>-39661.280395507813</v>
+      </c>
+      <c r="B247">
+        <v>32561</v>
+      </c>
+      <c r="C247">
+        <v>15454.51559448242</v>
+      </c>
+      <c r="D247">
+        <v>26395.305358886719</v>
+      </c>
+      <c r="E247">
+        <v>74035.64990234375</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>-31532.939819335941</v>
+      </c>
+      <c r="B248">
+        <v>39063</v>
+      </c>
+      <c r="C248">
+        <v>17467.841491699219</v>
+      </c>
+      <c r="D248">
+        <v>29713.175415039059</v>
+      </c>
+      <c r="E248">
+        <v>73249.450439453125</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>-26626.119934082031</v>
+      </c>
+      <c r="B249">
+        <v>37224</v>
+      </c>
+      <c r="C249">
+        <v>21581.379638671879</v>
+      </c>
+      <c r="D249">
+        <v>30524.40576171875</v>
+      </c>
+      <c r="E249">
+        <v>74931.599853515625</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>-31524.960205078121</v>
+      </c>
+      <c r="B250">
+        <v>32807</v>
+      </c>
+      <c r="C250">
+        <v>14352.332153320311</v>
+      </c>
+      <c r="D250">
+        <v>39842.567626953118</v>
+      </c>
+      <c r="E250">
+        <v>79122.550048828125</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>-27862.160278320309</v>
+      </c>
+      <c r="B251">
+        <v>29141</v>
+      </c>
+      <c r="C251">
+        <v>14756.39826965332</v>
+      </c>
+      <c r="D251">
+        <v>40124.696044921882</v>
+      </c>
+      <c r="E251">
+        <v>69148.299560546875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>-28729.599853515621</v>
+      </c>
+      <c r="B252">
+        <v>36003</v>
+      </c>
+      <c r="C252">
+        <v>16504.025863647461</v>
+      </c>
+      <c r="D252">
+        <v>37705.067687988281</v>
+      </c>
+      <c r="E252">
+        <v>55192.10009765625</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>-32953.800262451172</v>
+      </c>
+      <c r="B253">
+        <v>37335</v>
+      </c>
+      <c r="C253">
+        <v>17231.34423828125</v>
+      </c>
+      <c r="D253">
+        <v>34523.4287109375</v>
+      </c>
+      <c r="E253">
+        <v>60917.2001953125</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>-31172.89984130859</v>
+      </c>
+      <c r="B254">
+        <v>26420</v>
+      </c>
+      <c r="C254">
+        <v>22425.98150634766</v>
+      </c>
+      <c r="D254">
+        <v>31271.330932617191</v>
+      </c>
+      <c r="E254">
+        <v>59649.89990234375</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>-24786.520202636719</v>
+      </c>
+      <c r="B255">
+        <v>30000</v>
+      </c>
+      <c r="C255">
+        <v>24543.019226074219</v>
+      </c>
+      <c r="D255">
+        <v>27109.855834960941</v>
+      </c>
+      <c r="E255">
+        <v>50923.349975585938</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>-20457.300140380859</v>
+      </c>
+      <c r="B256">
+        <v>26756</v>
+      </c>
+      <c r="C256">
+        <v>18857.39869689941</v>
+      </c>
+      <c r="D256">
+        <v>33775.479125976563</v>
+      </c>
+      <c r="E256">
+        <v>55838.450561523438</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>-15602.940277099609</v>
+      </c>
+      <c r="B257">
+        <v>30084</v>
+      </c>
+      <c r="C257">
+        <v>19822.742263793949</v>
+      </c>
+      <c r="D257">
+        <v>29717.570007324219</v>
+      </c>
+      <c r="E257">
+        <v>55474.549926757813</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>-6775.3000259399414</v>
+      </c>
+      <c r="B258">
+        <v>36744</v>
+      </c>
+      <c r="C258">
+        <v>22201.613098144531</v>
+      </c>
+      <c r="D258">
+        <v>27842.86334228516</v>
+      </c>
+      <c r="E258">
+        <v>58346.899658203118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>3856.980180978775</v>
+      </c>
+      <c r="B259">
+        <v>35251</v>
+      </c>
+      <c r="C259">
+        <v>20062.367370605469</v>
+      </c>
+      <c r="D259">
+        <v>27924.601745605469</v>
+      </c>
+      <c r="E259">
+        <v>66324.400024414063</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>-2942.0399436950679</v>
+      </c>
+      <c r="B260">
+        <v>41683</v>
+      </c>
+      <c r="C260">
+        <v>25957.510925292969</v>
+      </c>
+      <c r="D260">
+        <v>28665.519348144531</v>
+      </c>
+      <c r="E260">
+        <v>73725.100341796875</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>-4502.1198425292969</v>
+      </c>
+      <c r="B261">
+        <v>44430</v>
+      </c>
+      <c r="C261">
+        <v>35793.700561523438</v>
+      </c>
+      <c r="D261">
+        <v>25825.774230957031</v>
+      </c>
+      <c r="E261">
+        <v>76246.750244140625</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>-7688.2599716186523</v>
+      </c>
+      <c r="B262">
+        <v>45009</v>
+      </c>
+      <c r="C262">
+        <v>32738.540405273441</v>
+      </c>
+      <c r="D262">
+        <v>22060.54107666016</v>
+      </c>
+      <c r="E262">
+        <v>67171.599853515625</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>-14241.139930725099</v>
+      </c>
+      <c r="B263">
+        <v>40334</v>
+      </c>
+      <c r="C263">
+        <v>26874.33929443359</v>
+      </c>
+      <c r="D263">
+        <v>31274.99176025391</v>
+      </c>
+      <c r="E263">
+        <v>62075.60009765625</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>-18337.719997406009</v>
+      </c>
+      <c r="B264">
+        <v>37689</v>
+      </c>
+      <c r="C264">
+        <v>23448.214599609379</v>
+      </c>
+      <c r="D264">
+        <v>26047.258758544918</v>
+      </c>
+      <c r="E264">
+        <v>53704</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>-22756.72015380859</v>
+      </c>
+      <c r="B265">
+        <v>39470</v>
+      </c>
+      <c r="C265">
+        <v>14531.57060241699</v>
+      </c>
+      <c r="D265">
+        <v>27115.12945556641</v>
+      </c>
+      <c r="E265">
+        <v>54835</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>-23450.739967346191</v>
+      </c>
+      <c r="B266">
+        <v>40807.0400390625</v>
+      </c>
+      <c r="C266">
+        <v>16456.304763793949</v>
+      </c>
+      <c r="D266">
+        <v>30824.991851806641</v>
+      </c>
+      <c r="E266">
+        <v>56499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>-29530.83984375</v>
+      </c>
+      <c r="B267">
+        <v>34067</v>
+      </c>
+      <c r="C267">
+        <v>18900.325500488281</v>
+      </c>
+      <c r="D267">
+        <v>34152.530212402336</v>
+      </c>
+      <c r="E267">
+        <v>59410.599853515618</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>-22330.920074462891</v>
+      </c>
+      <c r="B268">
+        <v>38601</v>
+      </c>
+      <c r="C268">
+        <v>20132.996826171879</v>
+      </c>
+      <c r="D268">
+        <v>22215.22857666016</v>
+      </c>
+      <c r="E268">
+        <v>60686.549560546882</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>-3514.9397888183589</v>
+      </c>
+      <c r="B269">
+        <v>38139</v>
+      </c>
+      <c r="C269">
+        <v>22366.305999755859</v>
+      </c>
+      <c r="D269">
+        <v>17052.534515380859</v>
+      </c>
+      <c r="E269">
+        <v>60916.650634765618</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>-17738.660308837891</v>
+      </c>
+      <c r="B270">
+        <v>39165</v>
+      </c>
+      <c r="C270">
+        <v>15838.293930053709</v>
+      </c>
+      <c r="D270">
+        <v>26422.551727294918</v>
+      </c>
+      <c r="E270">
+        <v>69672.449951171875</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>-18839.020034790039</v>
+      </c>
+      <c r="B271">
+        <v>40155</v>
+      </c>
+      <c r="C271">
+        <v>16768.30485534668</v>
+      </c>
+      <c r="D271">
+        <v>27874.50396728516</v>
+      </c>
+      <c r="E271">
+        <v>74423.249877929688</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>-17193.57999420166</v>
+      </c>
+      <c r="B272">
+        <v>40501.840087890618</v>
+      </c>
+      <c r="C272">
+        <v>23491.295440673832</v>
+      </c>
+      <c r="D272">
+        <v>27506.24261474609</v>
+      </c>
+      <c r="E272">
+        <v>70634.649536132813</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>-20455.73984909058</v>
+      </c>
+      <c r="B273">
+        <v>38390</v>
+      </c>
+      <c r="C273">
+        <v>18425.039794921879</v>
+      </c>
+      <c r="D273">
+        <v>23151.263397216801</v>
+      </c>
+      <c r="E273">
+        <v>67549.7001953125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>-3447.8599681854248</v>
+      </c>
+      <c r="B274">
+        <v>37508</v>
+      </c>
+      <c r="C274">
+        <v>23372.656463623051</v>
+      </c>
+      <c r="D274">
+        <v>22404.193115234379</v>
+      </c>
+      <c r="E274">
+        <v>61774.099853515618</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>-10018.320007324221</v>
+      </c>
+      <c r="B275">
+        <v>38389</v>
+      </c>
+      <c r="C275">
+        <v>23025.004211425781</v>
+      </c>
+      <c r="D275">
+        <v>23328.802551269531</v>
+      </c>
+      <c r="E275">
+        <v>69602.6005859375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>-18519.060134887699</v>
+      </c>
+      <c r="B276">
+        <v>40125</v>
+      </c>
+      <c r="C276">
+        <v>31032.195556640621</v>
+      </c>
+      <c r="D276">
+        <v>18101.948211669918</v>
+      </c>
+      <c r="E276">
+        <v>60689.05029296875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>-7820.680061340332</v>
+      </c>
+      <c r="B277">
+        <v>34925</v>
+      </c>
+      <c r="C277">
+        <v>23666.276092529301</v>
+      </c>
+      <c r="D277">
+        <v>28310.441589355469</v>
+      </c>
+      <c r="E277">
+        <v>61739.950317382813</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>-17029.779411315922</v>
+      </c>
+      <c r="B278">
+        <v>38303</v>
+      </c>
+      <c r="C278">
+        <v>28246.58447265625</v>
+      </c>
+      <c r="D278">
+        <v>25388.079345703121</v>
+      </c>
+      <c r="E278">
+        <v>59793.849975585938</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>-14574.46020507812</v>
+      </c>
+      <c r="B279">
+        <v>37848</v>
+      </c>
+      <c r="C279">
+        <v>31870.295043945309</v>
+      </c>
+      <c r="D279">
+        <v>23292.766876220699</v>
+      </c>
+      <c r="E279">
+        <v>62546.750244140618</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>-3318.9799652099609</v>
+      </c>
+      <c r="B280">
+        <v>42619</v>
+      </c>
+      <c r="C280">
+        <v>28288.799987792969</v>
+      </c>
+      <c r="D280">
+        <v>24764.93499755859</v>
+      </c>
+      <c r="E280">
+        <v>68925.199829101563</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>684.70014190673828</v>
+      </c>
+      <c r="B281">
+        <v>40023</v>
+      </c>
+      <c r="C281">
+        <v>31312.540649414059</v>
+      </c>
+      <c r="D281">
+        <v>308.49600219726563</v>
+      </c>
+      <c r="E281">
+        <v>80119.800048828125</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>-17421.959850311279</v>
+      </c>
+      <c r="B282">
+        <v>38814</v>
+      </c>
+      <c r="C282">
+        <v>34856.859008789063</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>73770.70068359375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>-15030.580051422119</v>
+      </c>
+      <c r="B283">
+        <v>36112</v>
+      </c>
+      <c r="C283">
+        <v>34147.39990234375</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>72661.349853515625</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>-12111.799884796141</v>
+      </c>
+      <c r="B284">
+        <v>35478</v>
+      </c>
+      <c r="C284">
+        <v>25716.23138427734</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>73438</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>9145.9600830078125</v>
+      </c>
+      <c r="B285">
+        <v>36529.108154296882</v>
+      </c>
+      <c r="C285">
+        <v>26510.661437988281</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>73072.80029296875</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>434.14005088806152</v>
+      </c>
+      <c r="B286">
+        <v>36110</v>
+      </c>
+      <c r="C286">
+        <v>22605.22906494141</v>
+      </c>
+      <c r="D286">
+        <v>0.8789060115814209</v>
+      </c>
+      <c r="E286">
+        <v>74672.350341796875</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>-6494.8400726318359</v>
+      </c>
+      <c r="B287">
+        <v>35207</v>
+      </c>
+      <c r="C287">
+        <v>22752.443359375</v>
+      </c>
+      <c r="D287">
+        <v>1.757812023162842</v>
+      </c>
+      <c r="E287">
+        <v>73900.800537109375</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>-2592.4398956298828</v>
+      </c>
+      <c r="B288">
+        <v>38517</v>
+      </c>
+      <c r="C288">
+        <v>23613.121459960941</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>74773.349975585938</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>-10671.939895629879</v>
+      </c>
+      <c r="B289">
+        <v>40391</v>
+      </c>
+      <c r="C289">
+        <v>24742.334838867191</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>71371.250366210938</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>-9313.5597877502441</v>
+      </c>
+      <c r="B290">
+        <v>38981</v>
+      </c>
+      <c r="C290">
+        <v>26902.26513671875</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>65810.14990234375</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>-9014.3600425720215</v>
+      </c>
+      <c r="B291">
+        <v>36873</v>
+      </c>
+      <c r="C291">
+        <v>14918.107116699221</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>79452.14990234375</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>-5049.0400581359863</v>
+      </c>
+      <c r="B292">
+        <v>36531</v>
+      </c>
+      <c r="C292">
+        <v>17032.93896484375</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>72884.45068359375</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>7889.7399024963379</v>
+      </c>
+      <c r="B293">
+        <v>36962</v>
+      </c>
+      <c r="C293">
+        <v>14358.94213867188</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>67196.05029296875</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>-5279.3799467086792</v>
+      </c>
+      <c r="B294">
+        <v>35108</v>
+      </c>
+      <c r="C294">
+        <v>10918.591186523439</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>71169.699462890625</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>-9261.8599739074707</v>
+      </c>
+      <c r="B295">
+        <v>36952</v>
+      </c>
+      <c r="C295">
+        <v>11668.8116607666</v>
+      </c>
+      <c r="D295">
+        <v>980.85919189453125</v>
+      </c>
+      <c r="E295">
+        <v>79344.599853515625</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>-6447.6600723266602</v>
+      </c>
+      <c r="B296">
+        <v>41034</v>
+      </c>
+      <c r="C296">
+        <v>20748.785766601559</v>
+      </c>
+      <c r="D296">
+        <v>2390.624389648438</v>
+      </c>
+      <c r="E296">
+        <v>78715.449462890625</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>-9825.0400085449219</v>
+      </c>
+      <c r="B297">
+        <v>40566</v>
+      </c>
+      <c r="C297">
+        <v>30498.074584960941</v>
+      </c>
+      <c r="D297">
+        <v>10186.520660400391</v>
+      </c>
+      <c r="E297">
+        <v>74380.499755859375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2173.7599983215332</v>
+      </c>
+      <c r="B298">
+        <v>35694</v>
+      </c>
+      <c r="C298">
+        <v>23973.793579101559</v>
+      </c>
+      <c r="D298">
+        <v>26951.652618408199</v>
+      </c>
+      <c r="E298">
+        <v>66964.400146484375</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>-6019.6800079345703</v>
+      </c>
+      <c r="B299">
+        <v>35374</v>
+      </c>
+      <c r="C299">
+        <v>21343.751281738281</v>
+      </c>
+      <c r="D299">
+        <v>31260.049896240231</v>
+      </c>
+      <c r="E299">
+        <v>49475.800415039063</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>-6944.819995880127</v>
+      </c>
+      <c r="B300">
+        <v>37494</v>
+      </c>
+      <c r="C300">
+        <v>17174.859497070309</v>
+      </c>
+      <c r="D300">
+        <v>26231.828582763668</v>
+      </c>
+      <c r="E300">
+        <v>45804.850341796882</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>-5631.8201026916504</v>
+      </c>
+      <c r="B301">
+        <v>39246</v>
+      </c>
+      <c r="C301">
+        <v>16678.607238769531</v>
+      </c>
+      <c r="D301">
+        <v>30942.76507568359</v>
+      </c>
+      <c r="E301">
+        <v>57347.599975585938</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>-12787.659950256349</v>
+      </c>
+      <c r="B302">
+        <v>37323</v>
+      </c>
+      <c r="C302">
+        <v>14965.724517822269</v>
+      </c>
+      <c r="D302">
+        <v>32185.537933349609</v>
+      </c>
+      <c r="E302">
+        <v>59482.5498046875</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>-9979.7602043151855</v>
+      </c>
+      <c r="B303">
+        <v>40790</v>
+      </c>
+      <c r="C303">
+        <v>21534.19287109375</v>
+      </c>
+      <c r="D303">
+        <v>32158.291870117191</v>
+      </c>
+      <c r="E303">
+        <v>63836.5498046875</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>-12672.519950866699</v>
+      </c>
+      <c r="B304">
+        <v>43362</v>
+      </c>
+      <c r="C304">
+        <v>24796.477722167969</v>
+      </c>
+      <c r="D304">
+        <v>21066.498321533199</v>
+      </c>
+      <c r="E304">
+        <v>61422.500122070313</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>-3519.6799850463872</v>
+      </c>
+      <c r="B305">
+        <v>38559</v>
+      </c>
+      <c r="C305">
+        <v>19384.089111328121</v>
+      </c>
+      <c r="D305">
+        <v>35139.541809082031</v>
+      </c>
+      <c r="E305">
+        <v>71487.799072265625</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>-5259.2399711608887</v>
+      </c>
+      <c r="B306">
+        <v>34771</v>
+      </c>
+      <c r="C306">
+        <v>12436.41656494141</v>
+      </c>
+      <c r="D306">
+        <v>21562.201354980469</v>
+      </c>
+      <c r="E306">
+        <v>41854.399780273438</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>6085.4801826477051</v>
+      </c>
+      <c r="B307">
+        <v>38553</v>
+      </c>
+      <c r="C307">
+        <v>5431.0634231567383</v>
+      </c>
+      <c r="D307">
+        <v>11240.3291015625</v>
+      </c>
+      <c r="E307">
+        <v>41301.449951171882</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>8548.6800384521484</v>
+      </c>
+      <c r="B308">
+        <v>37558</v>
+      </c>
+      <c r="C308">
+        <v>14206.670501708981</v>
+      </c>
+      <c r="D308">
+        <v>16690.425201416019</v>
+      </c>
+      <c r="E308">
+        <v>48322.300048828118</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>9492.2600727081299</v>
+      </c>
+      <c r="B309">
+        <v>40355</v>
+      </c>
+      <c r="C309">
+        <v>12736.807952880859</v>
+      </c>
+      <c r="D309">
+        <v>2094.4331665039058</v>
+      </c>
+      <c r="E309">
+        <v>49716.60009765625</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>5169.3998641967773</v>
+      </c>
+      <c r="B310">
+        <v>39352</v>
+      </c>
+      <c r="C310">
+        <v>13177.332641601561</v>
+      </c>
+      <c r="D310">
+        <v>11039.93841552734</v>
+      </c>
+      <c r="E310">
+        <v>57147.249267578118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>-3644.9000930786128</v>
+      </c>
+      <c r="B311">
+        <v>40323</v>
+      </c>
+      <c r="C311">
+        <v>13068.3056640625</v>
+      </c>
+      <c r="D311">
+        <v>6994.3339836597443</v>
+      </c>
+      <c r="E311">
+        <v>60810.10009765625</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>3990.3800506591801</v>
+      </c>
+      <c r="B312">
+        <v>35369</v>
+      </c>
+      <c r="C312">
+        <v>5125.7610244750977</v>
+      </c>
+      <c r="D312">
+        <v>11706.149291992189</v>
+      </c>
+      <c r="E312">
+        <v>47486.650024414063</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>6040.0599899291992</v>
+      </c>
+      <c r="B313">
+        <v>36463</v>
+      </c>
+      <c r="C313">
+        <v>2543.771705627441</v>
+      </c>
+      <c r="D313">
+        <v>16969.917205810551</v>
+      </c>
+      <c r="E313">
+        <v>43176.150024414063</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>8037.660041809082</v>
+      </c>
+      <c r="B314">
+        <v>35702</v>
+      </c>
+      <c r="C314">
+        <v>5930.3954010009766</v>
+      </c>
+      <c r="D314">
+        <v>22719.720611572269</v>
+      </c>
+      <c r="E314">
+        <v>43979.150024414063</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>-1176.2799949646001</v>
+      </c>
+      <c r="B315">
+        <v>39213</v>
+      </c>
+      <c r="C315">
+        <v>6432.5840759277344</v>
+      </c>
+      <c r="D315">
+        <v>18307.6123046875</v>
+      </c>
+      <c r="E315">
+        <v>46441.25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>-11021.119972229</v>
+      </c>
+      <c r="B316">
+        <v>35953</v>
+      </c>
+      <c r="C316">
+        <v>4001.0194702148442</v>
+      </c>
+      <c r="D316">
+        <v>25304.583160400391</v>
+      </c>
+      <c r="E316">
+        <v>50528.349853515618</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>-1694.6399974823</v>
+      </c>
+      <c r="B317">
+        <v>36694</v>
+      </c>
+      <c r="C317">
+        <v>5136.8173141479492</v>
+      </c>
+      <c r="D317">
+        <v>26835.63726806641</v>
+      </c>
+      <c r="E317">
+        <v>60631.149780273438</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>3092.9400291442871</v>
+      </c>
+      <c r="B318">
+        <v>40439.769775390618</v>
+      </c>
+      <c r="C318">
+        <v>8147.9234771728516</v>
+      </c>
+      <c r="D318">
+        <v>22533.39215087891</v>
+      </c>
+      <c r="E318">
+        <v>68473.00048828125</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>4753.479944229126</v>
+      </c>
+      <c r="B319">
+        <v>34491</v>
+      </c>
+      <c r="C319">
+        <v>6866.3742370605469</v>
+      </c>
+      <c r="D319">
+        <v>25132.317535400391</v>
+      </c>
+      <c r="E319">
+        <v>73032.650146484375</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>-13126.18031311035</v>
+      </c>
+      <c r="B320">
+        <v>35877</v>
+      </c>
+      <c r="C320">
+        <v>11056.55702209473</v>
+      </c>
+      <c r="D320">
+        <v>15654.195037841801</v>
+      </c>
+      <c r="E320">
+        <v>45101.85009765625</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>-12199.639923095699</v>
+      </c>
+      <c r="B321">
+        <v>38588.593994140618</v>
+      </c>
+      <c r="C321">
+        <v>12604.180160522459</v>
+      </c>
+      <c r="D321">
+        <v>10697.16510009766</v>
+      </c>
+      <c r="E321">
+        <v>37831.449829101563</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>8746.9998970031738</v>
+      </c>
+      <c r="B322">
+        <v>35204.287841796882</v>
+      </c>
+      <c r="C322">
+        <v>9197.2847900390625</v>
+      </c>
+      <c r="D322">
+        <v>21007.611602783199</v>
+      </c>
+      <c r="E322">
+        <v>50156.949340820313</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>11857.78002929688</v>
+      </c>
+      <c r="B323">
+        <v>34106</v>
+      </c>
+      <c r="C323">
+        <v>8192.5449981689453</v>
+      </c>
+      <c r="D323">
+        <v>5516.89306640625</v>
+      </c>
+      <c r="E323">
+        <v>39401.500122070313</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>-2896.4800095558171</v>
+      </c>
+      <c r="B324">
+        <v>30532</v>
+      </c>
+      <c r="C324">
+        <v>7745.7403259277344</v>
+      </c>
+      <c r="D324">
+        <v>1244.530883789062</v>
+      </c>
+      <c r="E324">
+        <v>37100.850341796882</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>-11415.30005264282</v>
+      </c>
+      <c r="B325">
+        <v>34530</v>
+      </c>
+      <c r="C325">
+        <v>7081.8171691894531</v>
+      </c>
+      <c r="D325">
+        <v>7803.8065795898438</v>
+      </c>
+      <c r="E325">
+        <v>41474.449951171882</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>-6213.2400207519531</v>
+      </c>
+      <c r="B326">
+        <v>32123</v>
+      </c>
+      <c r="C326">
+        <v>1141.5030212402339</v>
+      </c>
+      <c r="D326">
+        <v>11233.297760009769</v>
+      </c>
+      <c r="E326">
+        <v>45733.400146484382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>7013.200138092041</v>
+      </c>
+      <c r="B327">
+        <v>35315</v>
+      </c>
+      <c r="C327">
+        <v>1955.7065997123721</v>
+      </c>
+      <c r="D327">
+        <v>22582.610748291019</v>
+      </c>
+      <c r="E327">
+        <v>58002.10009765625</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>3779.8000144958501</v>
+      </c>
+      <c r="B328">
+        <v>33015</v>
+      </c>
+      <c r="C328">
+        <v>8983.4210243225098</v>
+      </c>
+      <c r="D328">
+        <v>23508.977752685551</v>
+      </c>
+      <c r="E328">
+        <v>70893.9501953125</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>-12752.679779052731</v>
+      </c>
+      <c r="B329">
+        <v>38856</v>
+      </c>
+      <c r="C329">
+        <v>6842.5481414794922</v>
+      </c>
+      <c r="D329">
+        <v>6899.4122619628906</v>
+      </c>
+      <c r="E329">
+        <v>50723.299682617188</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>-629.27996444702148</v>
+      </c>
+      <c r="B330">
+        <v>36625</v>
+      </c>
+      <c r="C330">
+        <v>23628.64984130859</v>
+      </c>
+      <c r="D330">
+        <v>13369.039398193359</v>
+      </c>
+      <c r="E330">
+        <v>53102.949829101563</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>-16574.93994140625</v>
+      </c>
+      <c r="B331">
+        <v>23904</v>
+      </c>
+      <c r="C331">
+        <v>22670.53607177734</v>
+      </c>
+      <c r="D331">
+        <v>15108.394439697269</v>
+      </c>
+      <c r="E331">
+        <v>50780.650268554688</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>-8928.4399604797363</v>
+      </c>
+      <c r="B332">
+        <v>21584</v>
+      </c>
+      <c r="C332">
+        <v>19472.72021484375</v>
+      </c>
+      <c r="D332">
+        <v>15679.683380126949</v>
+      </c>
+      <c r="E332">
+        <v>58071.199829101563</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>-14229.040157318121</v>
+      </c>
+      <c r="B333">
+        <v>22965</v>
+      </c>
+      <c r="C333">
+        <v>13673.346832275391</v>
+      </c>
+      <c r="D333">
+        <v>26132.512451171879</v>
+      </c>
+      <c r="E333">
+        <v>53559.4501953125</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>-22604.799774169918</v>
+      </c>
+      <c r="B334">
+        <v>35524</v>
+      </c>
+      <c r="C334">
+        <v>15513.250854492189</v>
+      </c>
+      <c r="D334">
+        <v>22728.508941650391</v>
+      </c>
+      <c r="E334">
+        <v>48335.849853515618</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>-16896.440113067631</v>
+      </c>
+      <c r="B335">
+        <v>35238</v>
+      </c>
+      <c r="C335">
+        <v>10342.30328369141</v>
+      </c>
+      <c r="D335">
+        <v>20138.37359619141</v>
+      </c>
+      <c r="E335">
+        <v>58688.150390625</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>-16535.920227050781</v>
+      </c>
+      <c r="B336">
+        <v>32231</v>
+      </c>
+      <c r="C336">
+        <v>10459.33978271484</v>
+      </c>
+      <c r="D336">
+        <v>17972.749206542969</v>
+      </c>
+      <c r="E336">
+        <v>41969.400146484382</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>-16921.700050354</v>
+      </c>
+      <c r="B337">
+        <v>29500</v>
+      </c>
+      <c r="C337">
+        <v>8498.3010635375977</v>
+      </c>
+      <c r="D337">
+        <v>15928.413665771481</v>
+      </c>
+      <c r="E337">
+        <v>47120.800415039063</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>-21878.91998291016</v>
+      </c>
+      <c r="B338">
+        <v>30437</v>
+      </c>
+      <c r="C338">
+        <v>9979.0385284423828</v>
+      </c>
+      <c r="D338">
+        <v>13414.742462158199</v>
+      </c>
+      <c r="E338">
+        <v>35471.400207519531</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>-18032.280059814449</v>
+      </c>
+      <c r="B339">
+        <v>28434</v>
+      </c>
+      <c r="C339">
+        <v>14661.896202087401</v>
+      </c>
+      <c r="D339">
+        <v>6606.7364196777344</v>
+      </c>
+      <c r="E339">
+        <v>48896.300048828118</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>-26912.340087890621</v>
+      </c>
+      <c r="B340">
+        <v>23926</v>
+      </c>
+      <c r="C340">
+        <v>3562.1473999023442</v>
+      </c>
+      <c r="D340">
+        <v>15798.335540771481</v>
+      </c>
+      <c r="E340">
+        <v>38776.60009765625</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>-19952.099761962891</v>
+      </c>
+      <c r="B341">
+        <v>31450</v>
+      </c>
+      <c r="C341">
+        <v>6766.5582427978516</v>
+      </c>
+      <c r="D341">
+        <v>12469.039916992189</v>
+      </c>
+      <c r="E341">
+        <v>44289.150268554688</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>-15729.51995849609</v>
+      </c>
+      <c r="B342">
+        <v>31189</v>
+      </c>
+      <c r="C342">
+        <v>5805.9431457519531</v>
+      </c>
+      <c r="D342">
+        <v>8676.5600891113281</v>
+      </c>
+      <c r="E342">
+        <v>41793.10009765625</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>-10572.41973114014</v>
+      </c>
+      <c r="B343">
+        <v>31871</v>
+      </c>
+      <c r="C343">
+        <v>5722.3068542480469</v>
+      </c>
+      <c r="D343">
+        <v>13059.664276123051</v>
+      </c>
+      <c r="E343">
+        <v>37125.500122070313</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>-9793.7600860595703</v>
+      </c>
+      <c r="B344">
+        <v>35064</v>
+      </c>
+      <c r="C344">
+        <v>11920.938034057621</v>
+      </c>
+      <c r="D344">
+        <v>12052.43823242188</v>
+      </c>
+      <c r="E344">
+        <v>35255.550048828118</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>-5232.7000350952148</v>
+      </c>
+      <c r="B345">
+        <v>36310</v>
+      </c>
+      <c r="C345">
+        <v>17694.116577148441</v>
+      </c>
+      <c r="D345">
+        <v>9955.3684997558594</v>
+      </c>
+      <c r="E345">
+        <v>38846.75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>-6139.200023651123</v>
+      </c>
+      <c r="B346">
+        <v>33249</v>
+      </c>
+      <c r="C346">
+        <v>18536.339813232418</v>
+      </c>
+      <c r="D346">
+        <v>4744.3346862792969</v>
+      </c>
+      <c r="E346">
+        <v>33800.500122070313</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>-9836.0400238037109</v>
+      </c>
+      <c r="B347">
+        <v>28428</v>
+      </c>
+      <c r="C347">
+        <v>13368.17002868652</v>
+      </c>
+      <c r="D347">
+        <v>12629.879608154301</v>
+      </c>
+      <c r="E347">
+        <v>32078.75006103516</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>-5544.3999938964844</v>
+      </c>
+      <c r="B348">
+        <v>30549</v>
+      </c>
+      <c r="C348">
+        <v>16927.99371337891</v>
+      </c>
+      <c r="D348">
+        <v>8465.6227111816406</v>
+      </c>
+      <c r="E348">
+        <v>23212.299789428711</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>-2733.400009155273</v>
+      </c>
+      <c r="B349">
+        <v>35820</v>
+      </c>
+      <c r="C349">
+        <v>25087.00347900391</v>
+      </c>
+      <c r="D349">
+        <v>4680.1744079589844</v>
+      </c>
+      <c r="E349">
+        <v>30129.700073242191</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>367.57996368408197</v>
+      </c>
+      <c r="B350">
+        <v>34047</v>
+      </c>
+      <c r="C350">
+        <v>24105.205444335941</v>
+      </c>
+      <c r="D350">
+        <v>10829.880004882811</v>
+      </c>
+      <c r="E350">
+        <v>32279.450241088871</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>-2514.4199733734131</v>
+      </c>
+      <c r="B351">
+        <v>38058</v>
+      </c>
+      <c r="C351">
+        <v>19362.93414306641</v>
+      </c>
+      <c r="D351">
+        <v>9036.9116821289063</v>
+      </c>
+      <c r="E351">
+        <v>36150.449890136719</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>-3774.879968643188</v>
+      </c>
+      <c r="B352">
+        <v>40543</v>
+      </c>
+      <c r="C352">
+        <v>19271.396789550781</v>
+      </c>
+      <c r="D352">
+        <v>18386.713684082031</v>
+      </c>
+      <c r="E352">
+        <v>35697.099975585938</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>-13398.12017822266</v>
+      </c>
+      <c r="B353">
+        <v>39283</v>
+      </c>
+      <c r="C353">
+        <v>20408.8974609375</v>
+      </c>
+      <c r="D353">
+        <v>4764.5494995117188</v>
+      </c>
+      <c r="E353">
+        <v>35873.400024414063</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>-11265.33984375</v>
+      </c>
+      <c r="B354">
+        <v>36532</v>
+      </c>
+      <c r="C354">
+        <v>17042.145263671879</v>
+      </c>
+      <c r="D354">
+        <v>13036.812774658199</v>
+      </c>
+      <c r="E354">
+        <v>31613.150512695309</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>-13267.0799407959</v>
+      </c>
+      <c r="B355">
+        <v>38600.400024414063</v>
+      </c>
+      <c r="C355">
+        <v>16427.467895507809</v>
+      </c>
+      <c r="D355">
+        <v>14033.492309570311</v>
+      </c>
+      <c r="E355">
+        <v>47440.099914550781</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>-14198.359741210939</v>
+      </c>
+      <c r="B356">
+        <v>34331</v>
+      </c>
+      <c r="C356">
+        <v>21308.84716796875</v>
+      </c>
+      <c r="D356">
+        <v>8223.0446166992188</v>
+      </c>
+      <c r="E356">
+        <v>42766.349853515618</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>-19281.64007568359</v>
+      </c>
+      <c r="B357">
+        <v>35931.593994140618</v>
+      </c>
+      <c r="C357">
+        <v>19513.87261962891</v>
+      </c>
+      <c r="D357">
+        <v>4595.7994995117188</v>
+      </c>
+      <c r="E357">
+        <v>38539.19970703125</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>-14054.47991943359</v>
+      </c>
+      <c r="B358">
+        <v>26595</v>
+      </c>
+      <c r="C358">
+        <v>20470.571655273441</v>
+      </c>
+      <c r="D358">
+        <v>15850.19097900391</v>
+      </c>
+      <c r="E358">
+        <v>47510.949829101563</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>-16830.439849853519</v>
+      </c>
+      <c r="B359">
+        <v>25737</v>
+      </c>
+      <c r="C359">
+        <v>20596.404876708981</v>
+      </c>
+      <c r="D359">
+        <v>14398.238372802731</v>
+      </c>
+      <c r="E359">
+        <v>43737.300415039063</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>-551.15986251831055</v>
+      </c>
+      <c r="B360">
+        <v>28186</v>
+      </c>
+      <c r="C360">
+        <v>23184.067260742191</v>
+      </c>
+      <c r="D360">
+        <v>4882.3229675292969</v>
+      </c>
+      <c r="E360">
+        <v>41641.85009765625</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>-11923.919864654539</v>
+      </c>
+      <c r="B361">
+        <v>38717</v>
+      </c>
+      <c r="C361">
+        <v>25736.98583984375</v>
+      </c>
+      <c r="D361">
+        <v>6607.6153254508972</v>
+      </c>
+      <c r="E361">
+        <v>47871.550048828118</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>-7435.1400604248047</v>
+      </c>
+      <c r="B362">
+        <v>39146</v>
+      </c>
+      <c r="C362">
+        <v>19774.377838134769</v>
+      </c>
+      <c r="D362">
+        <v>15502.144134521481</v>
+      </c>
+      <c r="E362">
+        <v>45954.650146484382</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>22780.50006103516</v>
+      </c>
+      <c r="B363">
+        <v>38547</v>
+      </c>
+      <c r="C363">
+        <v>21355.372711181641</v>
+      </c>
+      <c r="D363">
+        <v>19320.99078369141</v>
+      </c>
+      <c r="E363">
+        <v>50475.600219726563</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>15556.58010864258</v>
+      </c>
+      <c r="B364">
+        <v>37499</v>
+      </c>
+      <c r="C364">
+        <v>20971.977844238281</v>
+      </c>
+      <c r="D364">
+        <v>18708.393585205082</v>
+      </c>
+      <c r="E364">
+        <v>55452.150146484382</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>14553.80000305176</v>
+      </c>
+      <c r="B365">
+        <v>34856</v>
+      </c>
+      <c r="C365">
+        <v>26823.88861083984</v>
+      </c>
+      <c r="D365">
+        <v>13594.918060302731</v>
+      </c>
+      <c r="E365">
+        <v>56676.30029296875</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>6883.5000610351563</v>
+      </c>
+      <c r="B366">
+        <v>39197.593994140618</v>
+      </c>
+      <c r="C366">
+        <v>22601.65179443359</v>
+      </c>
+      <c r="D366">
+        <v>11482.90695142746</v>
+      </c>
+      <c r="E366">
+        <v>44688.55029296875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>